--- a/all_data/all_regression.xlsx
+++ b/all_data/all_regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp\Desktop\master\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0FE21B-B129-4E4A-BC97-9FC9E920DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC0566-77A3-489A-BCAE-1B8791242F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="600" windowWidth="21840" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4521,7 +4521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4531,6 +4531,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4571,7 +4583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4584,9 +4596,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4866,39 +4884,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.9140625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="24.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
         <v>1469</v>
       </c>
@@ -4945,7 +4963,7 @@
       <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
     </row>
-    <row r="2" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5034,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5123,7 +5141,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5212,7 +5230,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5301,7 +5319,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5390,7 +5408,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5479,7 +5497,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5568,7 +5586,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5648,7 +5666,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5658,7 +5676,7 @@
       <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E10" t="s">
@@ -5728,7 +5746,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -5738,7 +5756,7 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -5747,37 +5765,37 @@
       <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="8" t="s">
         <v>448</v>
       </c>
       <c r="O11" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="8" t="s">
         <v>597</v>
       </c>
       <c r="S11" t="s">
         <v>768</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="8" t="s">
         <v>770</v>
       </c>
       <c r="X11" t="s">
@@ -5786,7 +5804,7 @@
       <c r="Y11" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="9" t="s">
         <v>965</v>
       </c>
       <c r="AB11" t="s">
@@ -5804,20 +5822,20 @@
       <c r="AG11" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AH11" s="8" t="s">
         <v>1222</v>
       </c>
       <c r="AK11" t="s">
         <v>1128</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AL11" s="12" t="s">
         <v>1319</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AM11" s="8" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5827,7 +5845,7 @@
       <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -5836,37 +5854,37 @@
       <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K12" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="8" t="s">
         <v>450</v>
       </c>
       <c r="O12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="8" t="s">
         <v>599</v>
       </c>
       <c r="S12" t="s">
         <v>771</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="8" t="s">
         <v>773</v>
       </c>
       <c r="X12" t="s">
@@ -5875,7 +5893,7 @@
       <c r="Y12" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="8" t="s">
         <v>967</v>
       </c>
       <c r="AB12" t="s">
@@ -5893,20 +5911,20 @@
       <c r="AG12" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AH12" s="8" t="s">
         <v>1223</v>
       </c>
       <c r="AK12" t="s">
         <v>64</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AL12" s="12" t="s">
         <v>1321</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AM12" s="8" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5916,7 +5934,7 @@
       <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -5925,37 +5943,37 @@
       <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="9" t="s">
         <v>452</v>
       </c>
       <c r="O13" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="9" t="s">
         <v>601</v>
       </c>
       <c r="S13" t="s">
         <v>774</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="8" t="s">
         <v>776</v>
       </c>
       <c r="X13" t="s">
@@ -5964,7 +5982,7 @@
       <c r="Y13" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="8" t="s">
         <v>969</v>
       </c>
       <c r="AB13" t="s">
@@ -5982,20 +6000,20 @@
       <c r="AG13" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AH13" s="8" t="s">
         <v>1224</v>
       </c>
       <c r="AK13" t="s">
         <v>69</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AL13" s="12" t="s">
         <v>1323</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AM13" s="8" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6005,7 +6023,7 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="12" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -6014,37 +6032,37 @@
       <c r="G14" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="8" t="s">
         <v>454</v>
       </c>
       <c r="O14" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="8" t="s">
         <v>603</v>
       </c>
       <c r="S14" t="s">
         <v>777</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="8" t="s">
         <v>779</v>
       </c>
       <c r="X14" t="s">
@@ -6053,7 +6071,7 @@
       <c r="Y14" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="8" t="s">
         <v>971</v>
       </c>
       <c r="AB14" t="s">
@@ -6071,20 +6089,20 @@
       <c r="AG14" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AH14" s="8" t="s">
         <v>1225</v>
       </c>
       <c r="AK14" t="s">
         <v>75</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AL14" s="12" t="s">
         <v>1325</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AM14" s="8" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6094,7 +6112,7 @@
       <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -6103,37 +6121,37 @@
       <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="8" t="s">
         <v>82</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="8" t="s">
         <v>456</v>
       </c>
       <c r="O15" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="8" t="s">
         <v>605</v>
       </c>
       <c r="S15" t="s">
         <v>780</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="8" t="s">
         <v>782</v>
       </c>
       <c r="X15" t="s">
@@ -6142,7 +6160,7 @@
       <c r="Y15" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="8" t="s">
         <v>973</v>
       </c>
       <c r="AB15" t="s">
@@ -6160,20 +6178,20 @@
       <c r="AG15" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AH15" s="8" t="s">
         <v>1226</v>
       </c>
       <c r="AK15" t="s">
         <v>1327</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AL15" s="12" t="s">
         <v>1328</v>
       </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AM15" s="9" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6183,7 +6201,7 @@
       <c r="C16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -6192,37 +6210,37 @@
       <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="8" t="s">
         <v>87</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="8" t="s">
         <v>457</v>
       </c>
       <c r="O16" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="8" t="s">
         <v>607</v>
       </c>
       <c r="S16" t="s">
         <v>783</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="8" t="s">
         <v>785</v>
       </c>
       <c r="X16" t="s">
@@ -6231,7 +6249,7 @@
       <c r="Y16" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="8" t="s">
         <v>975</v>
       </c>
       <c r="AB16" t="s">
@@ -6249,20 +6267,20 @@
       <c r="AG16" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AH16" s="8" t="s">
         <v>1227</v>
       </c>
       <c r="AK16" t="s">
         <v>85</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AL16" s="12" t="s">
         <v>1330</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AM16" s="8" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -6281,7 +6299,7 @@
       <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="11" t="s">
         <v>91</v>
       </c>
       <c r="I17" t="s">
@@ -6342,7 +6360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -6432,19 +6450,19 @@
       <c r="C19" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>103</v>
       </c>
       <c r="G19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="8" t="s">
         <v>101</v>
       </c>
       <c r="K19" t="s">
@@ -6459,16 +6477,16 @@
       <c r="O19" t="s">
         <v>99</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="8" t="s">
         <v>101</v>
       </c>
       <c r="S19" t="s">
         <v>786</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="12" t="s">
         <v>787</v>
       </c>
       <c r="U19" s="3" t="s">
@@ -6480,7 +6498,7 @@
       <c r="Y19" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="8" t="s">
         <v>980</v>
       </c>
       <c r="AB19" t="s">
@@ -6504,14 +6522,14 @@
       <c r="AK19" t="s">
         <v>978</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AL19" s="13" t="s">
         <v>1334</v>
       </c>
-      <c r="AM19" s="3" t="s">
+      <c r="AM19" s="8" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -6521,19 +6539,19 @@
       <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G20" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K20" t="s">
@@ -6548,16 +6566,16 @@
       <c r="O20" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="8" t="s">
         <v>612</v>
       </c>
       <c r="S20" t="s">
         <v>789</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="12" t="s">
         <v>790</v>
       </c>
       <c r="U20" s="3" t="s">
@@ -6569,7 +6587,7 @@
       <c r="Y20" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="8" t="s">
         <v>983</v>
       </c>
       <c r="AB20" t="s">
@@ -6593,14 +6611,14 @@
       <c r="AK20" t="s">
         <v>104</v>
       </c>
-      <c r="AL20" s="3" t="s">
+      <c r="AL20" s="12" t="s">
         <v>1336</v>
       </c>
-      <c r="AM20" s="3" t="s">
+      <c r="AM20" s="8" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -6610,19 +6628,19 @@
       <c r="C21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G21" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="8" t="s">
         <v>111</v>
       </c>
       <c r="K21" t="s">
@@ -6637,16 +6655,16 @@
       <c r="O21" t="s">
         <v>613</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="9" t="s">
         <v>615</v>
       </c>
       <c r="S21" t="s">
         <v>792</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="12" t="s">
         <v>793</v>
       </c>
       <c r="U21" s="3" t="s">
@@ -6658,7 +6676,7 @@
       <c r="Y21" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="8" t="s">
         <v>986</v>
       </c>
       <c r="AB21" t="s">
@@ -6682,14 +6700,14 @@
       <c r="AK21" t="s">
         <v>1338</v>
       </c>
-      <c r="AL21" s="3" t="s">
+      <c r="AL21" s="12" t="s">
         <v>1339</v>
       </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AM21" s="8" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -6699,19 +6717,19 @@
       <c r="C22" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="8" t="s">
         <v>118</v>
       </c>
       <c r="G22" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="8" t="s">
         <v>116</v>
       </c>
       <c r="K22" t="s">
@@ -6726,16 +6744,16 @@
       <c r="O22" t="s">
         <v>616</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="8" t="s">
         <v>618</v>
       </c>
       <c r="S22" t="s">
         <v>795</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="13" t="s">
         <v>796</v>
       </c>
       <c r="U22" s="2" t="s">
@@ -6747,7 +6765,7 @@
       <c r="Y22" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="8" t="s">
         <v>988</v>
       </c>
       <c r="AB22" t="s">
@@ -6771,14 +6789,14 @@
       <c r="AK22" t="s">
         <v>616</v>
       </c>
-      <c r="AL22" s="3" t="s">
+      <c r="AL22" s="12" t="s">
         <v>1341</v>
       </c>
-      <c r="AM22" s="3" t="s">
+      <c r="AM22" s="8" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -6788,19 +6806,19 @@
       <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G23" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="K23" t="s">
@@ -6815,16 +6833,16 @@
       <c r="O23" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="8" t="s">
         <v>620</v>
       </c>
       <c r="S23" t="s">
         <v>798</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="12" t="s">
         <v>799</v>
       </c>
       <c r="U23" s="2" t="s">
@@ -6836,7 +6854,7 @@
       <c r="Y23" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="Z23" s="8" t="s">
         <v>990</v>
       </c>
       <c r="AB23" t="s">
@@ -6860,14 +6878,14 @@
       <c r="AK23" t="s">
         <v>119</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AL23" s="12" t="s">
         <v>1343</v>
       </c>
-      <c r="AM23" s="3" t="s">
+      <c r="AM23" s="8" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6877,19 +6895,19 @@
       <c r="C24" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="8" t="s">
         <v>128</v>
       </c>
       <c r="G24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="8" t="s">
         <v>126</v>
       </c>
       <c r="K24" t="s">
@@ -6904,16 +6922,16 @@
       <c r="O24" t="s">
         <v>621</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="9" t="s">
         <v>623</v>
       </c>
       <c r="S24" t="s">
         <v>801</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="12" t="s">
         <v>802</v>
       </c>
       <c r="U24" s="3" t="s">
@@ -6925,7 +6943,7 @@
       <c r="Y24" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="8" t="s">
         <v>992</v>
       </c>
       <c r="AB24" t="s">
@@ -6949,14 +6967,14 @@
       <c r="AK24" t="s">
         <v>124</v>
       </c>
-      <c r="AL24" s="3" t="s">
+      <c r="AL24" s="12" t="s">
         <v>1345</v>
       </c>
-      <c r="AM24" s="3" t="s">
+      <c r="AM24" s="8" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -7036,7 +7054,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -7116,7 +7134,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -7198,14 +7216,14 @@
       <c r="AK27" t="s">
         <v>1348</v>
       </c>
-      <c r="AL27" s="3" t="s">
+      <c r="AL27" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="AM27" s="3" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -7287,14 +7305,14 @@
       <c r="AK28" t="s">
         <v>141</v>
       </c>
-      <c r="AL28" s="3" t="s">
+      <c r="AL28" s="12" t="s">
         <v>1351</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -7376,14 +7394,14 @@
       <c r="AK29" t="s">
         <v>146</v>
       </c>
-      <c r="AL29" s="3" t="s">
+      <c r="AL29" s="12" t="s">
         <v>1353</v>
       </c>
       <c r="AM29" s="2" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -7465,14 +7483,14 @@
       <c r="AK30" t="s">
         <v>151</v>
       </c>
-      <c r="AL30" s="3" t="s">
+      <c r="AL30" s="12" t="s">
         <v>1355</v>
       </c>
       <c r="AM30" s="2" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -7554,14 +7572,14 @@
       <c r="AK31" t="s">
         <v>156</v>
       </c>
-      <c r="AL31" s="3" t="s">
+      <c r="AL31" s="12" t="s">
         <v>1357</v>
       </c>
       <c r="AM31" s="2" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -7643,14 +7661,14 @@
       <c r="AK32" t="s">
         <v>1359</v>
       </c>
-      <c r="AL32" s="3" t="s">
+      <c r="AL32" s="12" t="s">
         <v>1360</v>
       </c>
       <c r="AM32" s="3" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -7730,7 +7748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -7806,11 +7824,11 @@
       <c r="AL34" t="s">
         <v>1362</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AM34" s="10" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -7820,7 +7838,7 @@
       <c r="C35" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="12" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -7829,7 +7847,7 @@
       <c r="G35" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="12" t="s">
         <v>171</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -7838,7 +7856,7 @@
       <c r="K35" t="s">
         <v>170</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="12" t="s">
         <v>486</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -7847,16 +7865,16 @@
       <c r="O35" t="s">
         <v>170</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="8" t="s">
         <v>643</v>
       </c>
       <c r="S35" t="s">
         <v>822</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="T35" s="12" t="s">
         <v>823</v>
       </c>
       <c r="U35" s="3" t="s">
@@ -7877,7 +7895,7 @@
       <c r="AC35" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="AD35" s="3" t="s">
+      <c r="AD35" s="8" t="s">
         <v>1157</v>
       </c>
       <c r="AF35" t="s">
@@ -7892,14 +7910,14 @@
       <c r="AK35" t="s">
         <v>170</v>
       </c>
-      <c r="AL35" s="3" t="s">
+      <c r="AL35" s="12" t="s">
         <v>1364</v>
       </c>
-      <c r="AM35" s="3" t="s">
+      <c r="AM35" s="8" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -7909,7 +7927,7 @@
       <c r="C36" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="12" t="s">
         <v>178</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -7918,7 +7936,7 @@
       <c r="G36" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="12" t="s">
         <v>176</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -7927,7 +7945,7 @@
       <c r="K36" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="12" t="s">
         <v>488</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -7936,16 +7954,16 @@
       <c r="O36" t="s">
         <v>175</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="8" t="s">
         <v>645</v>
       </c>
       <c r="S36" t="s">
         <v>825</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="T36" s="12" t="s">
         <v>826</v>
       </c>
       <c r="U36" s="3" t="s">
@@ -7966,7 +7984,7 @@
       <c r="AC36" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="AD36" s="3" t="s">
+      <c r="AD36" s="8" t="s">
         <v>1158</v>
       </c>
       <c r="AF36" t="s">
@@ -7981,14 +7999,14 @@
       <c r="AK36" t="s">
         <v>175</v>
       </c>
-      <c r="AL36" s="3" t="s">
+      <c r="AL36" s="12" t="s">
         <v>1366</v>
       </c>
-      <c r="AM36" s="3" t="s">
+      <c r="AM36" s="8" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -7998,7 +8016,7 @@
       <c r="C37" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="12" t="s">
         <v>183</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -8007,7 +8025,7 @@
       <c r="G37" t="s">
         <v>180</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="12" t="s">
         <v>181</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -8016,7 +8034,7 @@
       <c r="K37" t="s">
         <v>490</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="12" t="s">
         <v>491</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -8025,16 +8043,16 @@
       <c r="O37" t="s">
         <v>180</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="8" t="s">
         <v>647</v>
       </c>
       <c r="S37" t="s">
         <v>828</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="12" t="s">
         <v>829</v>
       </c>
       <c r="U37" s="3" t="s">
@@ -8055,7 +8073,7 @@
       <c r="AC37" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="AD37" s="3" t="s">
+      <c r="AD37" s="8" t="s">
         <v>1159</v>
       </c>
       <c r="AF37" t="s">
@@ -8070,14 +8088,14 @@
       <c r="AK37" t="s">
         <v>180</v>
       </c>
-      <c r="AL37" s="3" t="s">
+      <c r="AL37" s="12" t="s">
         <v>1368</v>
       </c>
-      <c r="AM37" s="3" t="s">
+      <c r="AM37" s="8" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -8087,7 +8105,7 @@
       <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -8096,7 +8114,7 @@
       <c r="G38" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="12" t="s">
         <v>186</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -8105,7 +8123,7 @@
       <c r="K38" t="s">
         <v>185</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="12" t="s">
         <v>493</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -8114,16 +8132,16 @@
       <c r="O38" t="s">
         <v>648</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="8" t="s">
         <v>650</v>
       </c>
       <c r="S38" t="s">
         <v>831</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="12" t="s">
         <v>832</v>
       </c>
       <c r="U38" s="2" t="s">
@@ -8144,7 +8162,7 @@
       <c r="AC38" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="AD38" s="3" t="s">
+      <c r="AD38" s="8" t="s">
         <v>1160</v>
       </c>
       <c r="AF38" t="s">
@@ -8159,14 +8177,14 @@
       <c r="AK38" t="s">
         <v>648</v>
       </c>
-      <c r="AL38" s="3" t="s">
+      <c r="AL38" s="12" t="s">
         <v>1370</v>
       </c>
-      <c r="AM38" s="3" t="s">
+      <c r="AM38" s="8" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -8176,7 +8194,7 @@
       <c r="C39" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -8185,7 +8203,7 @@
       <c r="G39" t="s">
         <v>190</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="13" t="s">
         <v>191</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -8194,7 +8212,7 @@
       <c r="K39" t="s">
         <v>495</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="12" t="s">
         <v>496</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -8203,16 +8221,16 @@
       <c r="O39" t="s">
         <v>190</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="9" t="s">
         <v>652</v>
       </c>
       <c r="S39" t="s">
         <v>834</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="12" t="s">
         <v>835</v>
       </c>
       <c r="U39" s="2" t="s">
@@ -8233,7 +8251,7 @@
       <c r="AC39" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="AD39" s="2" t="s">
+      <c r="AD39" s="9" t="s">
         <v>1161</v>
       </c>
       <c r="AF39" t="s">
@@ -8248,14 +8266,14 @@
       <c r="AK39" t="s">
         <v>190</v>
       </c>
-      <c r="AL39" s="2" t="s">
+      <c r="AL39" s="13" t="s">
         <v>1372</v>
       </c>
-      <c r="AM39" s="2" t="s">
+      <c r="AM39" s="9" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -8265,7 +8283,7 @@
       <c r="C40" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="12" t="s">
         <v>199</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -8274,7 +8292,7 @@
       <c r="G40" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="12" t="s">
         <v>197</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -8283,7 +8301,7 @@
       <c r="K40" t="s">
         <v>196</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="12" t="s">
         <v>498</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -8292,16 +8310,16 @@
       <c r="O40" t="s">
         <v>196</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="8" t="s">
         <v>654</v>
       </c>
       <c r="S40" t="s">
         <v>837</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="12" t="s">
         <v>838</v>
       </c>
       <c r="U40" s="3" t="s">
@@ -8322,7 +8340,7 @@
       <c r="AC40" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="AD40" s="3" t="s">
+      <c r="AD40" s="8" t="s">
         <v>1162</v>
       </c>
       <c r="AF40" t="s">
@@ -8337,14 +8355,14 @@
       <c r="AK40" t="s">
         <v>196</v>
       </c>
-      <c r="AL40" s="3" t="s">
+      <c r="AL40" s="12" t="s">
         <v>1374</v>
       </c>
-      <c r="AM40" s="3" t="s">
+      <c r="AM40" s="8" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -8424,7 +8442,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -8504,7 +8522,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -8517,13 +8535,13 @@
       <c r="D43" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="9" t="s">
         <v>212</v>
       </c>
       <c r="G43" t="s">
         <v>207</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="12" t="s">
         <v>208</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -8535,7 +8553,7 @@
       <c r="L43" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="9" t="s">
         <v>503</v>
       </c>
       <c r="O43" t="s">
@@ -8544,7 +8562,7 @@
       <c r="P43" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="9" t="s">
         <v>658</v>
       </c>
       <c r="S43" t="s">
@@ -8562,7 +8580,7 @@
       <c r="Y43" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="Z43" s="2" t="s">
+      <c r="Z43" s="9" t="s">
         <v>1025</v>
       </c>
       <c r="AB43" t="s">
@@ -8571,7 +8589,7 @@
       <c r="AC43" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="AD43" s="2" t="s">
+      <c r="AD43" s="9" t="s">
         <v>1165</v>
       </c>
       <c r="AF43" t="s">
@@ -8593,7 +8611,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -8606,13 +8624,13 @@
       <c r="D44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="8" t="s">
         <v>217</v>
       </c>
       <c r="G44" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -8624,7 +8642,7 @@
       <c r="L44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="8" t="s">
         <v>504</v>
       </c>
       <c r="O44" t="s">
@@ -8633,7 +8651,7 @@
       <c r="P44" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="8" t="s">
         <v>660</v>
       </c>
       <c r="S44" t="s">
@@ -8651,7 +8669,7 @@
       <c r="Y44" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="Z44" s="3" t="s">
+      <c r="Z44" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="AB44" t="s">
@@ -8660,7 +8678,7 @@
       <c r="AC44" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="AD44" s="3" t="s">
+      <c r="AD44" s="8" t="s">
         <v>1166</v>
       </c>
       <c r="AF44" t="s">
@@ -8682,7 +8700,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -8695,13 +8713,13 @@
       <c r="D45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="8" t="s">
         <v>223</v>
       </c>
       <c r="G45" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="13" t="s">
         <v>219</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -8713,7 +8731,7 @@
       <c r="L45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="8" t="s">
         <v>505</v>
       </c>
       <c r="O45" t="s">
@@ -8722,7 +8740,7 @@
       <c r="P45" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="8" t="s">
         <v>662</v>
       </c>
       <c r="S45" t="s">
@@ -8740,7 +8758,7 @@
       <c r="Y45" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="Z45" s="8" t="s">
         <v>1029</v>
       </c>
       <c r="AB45" t="s">
@@ -8749,7 +8767,7 @@
       <c r="AC45" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="AD45" s="3" t="s">
+      <c r="AD45" s="8" t="s">
         <v>1167</v>
       </c>
       <c r="AF45" t="s">
@@ -8771,7 +8789,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -8784,13 +8802,13 @@
       <c r="D46" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="8" t="s">
         <v>228</v>
       </c>
       <c r="G46" t="s">
         <v>224</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="12" t="s">
         <v>225</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -8802,7 +8820,7 @@
       <c r="L46" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="8" t="s">
         <v>507</v>
       </c>
       <c r="O46" t="s">
@@ -8811,7 +8829,7 @@
       <c r="P46" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="8" t="s">
         <v>664</v>
       </c>
       <c r="S46" t="s">
@@ -8829,7 +8847,7 @@
       <c r="Y46" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="Z46" s="3" t="s">
+      <c r="Z46" s="8" t="s">
         <v>1032</v>
       </c>
       <c r="AB46" t="s">
@@ -8838,7 +8856,7 @@
       <c r="AC46" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="AD46" s="3" t="s">
+      <c r="AD46" s="8" t="s">
         <v>1168</v>
       </c>
       <c r="AF46" t="s">
@@ -8860,7 +8878,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -8873,13 +8891,13 @@
       <c r="D47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="8" t="s">
         <v>233</v>
       </c>
       <c r="G47" t="s">
         <v>229</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="12" t="s">
         <v>230</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -8891,7 +8909,7 @@
       <c r="L47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="8" t="s">
         <v>508</v>
       </c>
       <c r="O47" t="s">
@@ -8900,7 +8918,7 @@
       <c r="P47" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="8" t="s">
         <v>666</v>
       </c>
       <c r="S47" t="s">
@@ -8918,7 +8936,7 @@
       <c r="Y47" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Z47" s="10" t="s">
         <v>1035</v>
       </c>
       <c r="AB47" t="s">
@@ -8927,7 +8945,7 @@
       <c r="AC47" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="AD47" s="3" t="s">
+      <c r="AD47" s="8" t="s">
         <v>1169</v>
       </c>
       <c r="AF47" t="s">
@@ -8949,7 +8967,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -8962,13 +8980,13 @@
       <c r="D48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="8" t="s">
         <v>238</v>
       </c>
       <c r="G48" t="s">
         <v>234</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="12" t="s">
         <v>235</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -8980,7 +8998,7 @@
       <c r="L48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="8" t="s">
         <v>509</v>
       </c>
       <c r="O48" t="s">
@@ -8989,7 +9007,7 @@
       <c r="P48" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" s="8" t="s">
         <v>668</v>
       </c>
       <c r="S48" t="s">
@@ -9007,7 +9025,7 @@
       <c r="Y48" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="Z48" s="8" t="s">
         <v>1037</v>
       </c>
       <c r="AB48" t="s">
@@ -9016,7 +9034,7 @@
       <c r="AC48" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="AD48" s="3" t="s">
+      <c r="AD48" s="8" t="s">
         <v>1170</v>
       </c>
       <c r="AF48" t="s">
@@ -9038,7 +9056,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -9118,7 +9136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -9198,7 +9216,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -9217,7 +9235,7 @@
       <c r="G51" t="s">
         <v>245</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="12" t="s">
         <v>246</v>
       </c>
       <c r="I51" s="3" t="s">
@@ -9229,7 +9247,7 @@
       <c r="L51" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="M51" s="8" t="s">
         <v>513</v>
       </c>
       <c r="O51" t="s">
@@ -9287,7 +9305,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -9306,7 +9324,7 @@
       <c r="G52" t="s">
         <v>251</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="12" t="s">
         <v>252</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -9318,7 +9336,7 @@
       <c r="L52" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="8" t="s">
         <v>515</v>
       </c>
       <c r="O52" t="s">
@@ -9376,7 +9394,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -9395,7 +9413,7 @@
       <c r="G53" t="s">
         <v>251</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="12" t="s">
         <v>257</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -9407,7 +9425,7 @@
       <c r="L53" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="9" t="s">
         <v>517</v>
       </c>
       <c r="O53" t="s">
@@ -9465,7 +9483,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -9484,7 +9502,7 @@
       <c r="G54" t="s">
         <v>251</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="12" t="s">
         <v>261</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -9496,7 +9514,7 @@
       <c r="L54" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="8" t="s">
         <v>518</v>
       </c>
       <c r="O54" t="s">
@@ -9554,7 +9572,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -9573,7 +9591,7 @@
       <c r="G55" t="s">
         <v>265</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="12" t="s">
         <v>266</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -9585,7 +9603,7 @@
       <c r="L55" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="8" t="s">
         <v>521</v>
       </c>
       <c r="O55" t="s">
@@ -9643,7 +9661,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -9662,7 +9680,7 @@
       <c r="G56" t="s">
         <v>270</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="13" t="s">
         <v>271</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -9674,7 +9692,7 @@
       <c r="L56" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="8" t="s">
         <v>523</v>
       </c>
       <c r="O56" t="s">
@@ -9732,7 +9750,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -9812,7 +9830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -9892,7 +9910,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>280</v>
       </c>
@@ -9981,7 +9999,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10070,7 +10088,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -10159,7 +10177,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -10248,7 +10266,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -10337,7 +10355,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -10426,7 +10444,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -10506,7 +10524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -10586,7 +10604,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>317</v>
       </c>
@@ -10596,7 +10614,7 @@
       <c r="C67" t="s">
         <v>318</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="12" t="s">
         <v>321</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -10623,7 +10641,7 @@
       <c r="O67" t="s">
         <v>318</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="P67" s="12" t="s">
         <v>701</v>
       </c>
       <c r="Q67" s="3" t="s">
@@ -10632,10 +10650,10 @@
       <c r="S67" t="s">
         <v>892</v>
       </c>
-      <c r="T67" s="3" t="s">
+      <c r="T67" s="12" t="s">
         <v>893</v>
       </c>
-      <c r="U67" s="3" t="s">
+      <c r="U67" s="8" t="s">
         <v>894</v>
       </c>
       <c r="X67" t="s">
@@ -10671,11 +10689,11 @@
       <c r="AL67" s="3" t="s">
         <v>1423</v>
       </c>
-      <c r="AM67" s="3" t="s">
+      <c r="AM67" s="8" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -10685,7 +10703,7 @@
       <c r="C68" t="s">
         <v>323</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="12" t="s">
         <v>326</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -10712,7 +10730,7 @@
       <c r="O68" t="s">
         <v>323</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="P68" s="12" t="s">
         <v>703</v>
       </c>
       <c r="Q68" s="3" t="s">
@@ -10721,10 +10739,10 @@
       <c r="S68" t="s">
         <v>895</v>
       </c>
-      <c r="T68" s="3" t="s">
+      <c r="T68" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="U68" s="3" t="s">
+      <c r="U68" s="8" t="s">
         <v>897</v>
       </c>
       <c r="X68" t="s">
@@ -10760,11 +10778,11 @@
       <c r="AL68" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="AM68" s="3" t="s">
+      <c r="AM68" s="8" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -10774,7 +10792,7 @@
       <c r="C69" t="s">
         <v>328</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="12" t="s">
         <v>331</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -10801,7 +10819,7 @@
       <c r="O69" t="s">
         <v>705</v>
       </c>
-      <c r="P69" s="3" t="s">
+      <c r="P69" s="12" t="s">
         <v>706</v>
       </c>
       <c r="Q69" s="2" t="s">
@@ -10810,10 +10828,10 @@
       <c r="S69" t="s">
         <v>898</v>
       </c>
-      <c r="T69" s="3" t="s">
+      <c r="T69" s="12" t="s">
         <v>899</v>
       </c>
-      <c r="U69" s="3" t="s">
+      <c r="U69" s="8" t="s">
         <v>900</v>
       </c>
       <c r="X69" t="s">
@@ -10849,11 +10867,11 @@
       <c r="AL69" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="AM69" s="3" t="s">
+      <c r="AM69" s="8" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -10863,7 +10881,7 @@
       <c r="C70" t="s">
         <v>336</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="12" t="s">
         <v>337</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10890,7 +10908,7 @@
       <c r="O70" t="s">
         <v>336</v>
       </c>
-      <c r="P70" s="3" t="s">
+      <c r="P70" s="12" t="s">
         <v>708</v>
       </c>
       <c r="Q70" s="2" t="s">
@@ -10899,10 +10917,10 @@
       <c r="S70" t="s">
         <v>901</v>
       </c>
-      <c r="T70" s="3" t="s">
+      <c r="T70" s="12" t="s">
         <v>902</v>
       </c>
-      <c r="U70" s="2" t="s">
+      <c r="U70" s="9" t="s">
         <v>903</v>
       </c>
       <c r="X70" t="s">
@@ -10938,11 +10956,11 @@
       <c r="AL70" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="AM70" s="3" t="s">
+      <c r="AM70" s="8" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -10952,7 +10970,7 @@
       <c r="C71" t="s">
         <v>339</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="13" t="s">
         <v>342</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -10979,7 +10997,7 @@
       <c r="O71" t="s">
         <v>710</v>
       </c>
-      <c r="P71" s="3" t="s">
+      <c r="P71" s="12" t="s">
         <v>711</v>
       </c>
       <c r="Q71" s="2" t="s">
@@ -10988,10 +11006,10 @@
       <c r="S71" t="s">
         <v>904</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="T71" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="U71" s="3" t="s">
+      <c r="U71" s="8" t="s">
         <v>906</v>
       </c>
       <c r="X71" t="s">
@@ -11027,11 +11045,11 @@
       <c r="AL71" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="AM71" s="2" t="s">
+      <c r="AM71" s="9" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -11041,7 +11059,7 @@
       <c r="C72" t="s">
         <v>344</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="12" t="s">
         <v>347</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -11068,7 +11086,7 @@
       <c r="O72" t="s">
         <v>344</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="P72" s="12" t="s">
         <v>713</v>
       </c>
       <c r="Q72" s="2" t="s">
@@ -11077,10 +11095,10 @@
       <c r="S72" t="s">
         <v>907</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="T72" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="U72" s="8" t="s">
         <v>909</v>
       </c>
       <c r="X72" t="s">
@@ -11116,11 +11134,11 @@
       <c r="AL72" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="AM72" s="3" t="s">
+      <c r="AM72" s="8" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -11200,7 +11218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -11280,7 +11298,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -11290,7 +11308,7 @@
       <c r="C75" t="s">
         <v>354</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="12" t="s">
         <v>357</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -11299,7 +11317,7 @@
       <c r="G75" t="s">
         <v>354</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="12" t="s">
         <v>355</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -11308,7 +11326,7 @@
       <c r="K75" t="s">
         <v>354</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="12" t="s">
         <v>554</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -11317,16 +11335,16 @@
       <c r="O75" t="s">
         <v>354</v>
       </c>
-      <c r="P75" s="3" t="s">
+      <c r="P75" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="Q75" s="3" t="s">
+      <c r="Q75" s="8" t="s">
         <v>718</v>
       </c>
       <c r="S75" t="s">
         <v>910</v>
       </c>
-      <c r="T75" s="3" t="s">
+      <c r="T75" s="12" t="s">
         <v>911</v>
       </c>
       <c r="U75" s="3" t="s">
@@ -11338,7 +11356,7 @@
       <c r="Y75" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="Z75" s="3" t="s">
+      <c r="Z75" s="8" t="s">
         <v>1086</v>
       </c>
       <c r="AB75" t="s">
@@ -11362,14 +11380,14 @@
       <c r="AK75" t="s">
         <v>354</v>
       </c>
-      <c r="AL75" s="3" t="s">
+      <c r="AL75" s="12" t="s">
         <v>1437</v>
       </c>
-      <c r="AM75" s="3" t="s">
+      <c r="AM75" s="8" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -11379,7 +11397,7 @@
       <c r="C76" t="s">
         <v>359</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="12" t="s">
         <v>362</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -11388,7 +11406,7 @@
       <c r="G76" t="s">
         <v>359</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="12" t="s">
         <v>360</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -11397,7 +11415,7 @@
       <c r="K76" t="s">
         <v>359</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="12" t="s">
         <v>556</v>
       </c>
       <c r="M76" s="3" t="s">
@@ -11406,16 +11424,16 @@
       <c r="O76" t="s">
         <v>359</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="P76" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="Q76" s="8" t="s">
         <v>720</v>
       </c>
       <c r="S76" t="s">
         <v>913</v>
       </c>
-      <c r="T76" s="3" t="s">
+      <c r="T76" s="12" t="s">
         <v>914</v>
       </c>
       <c r="U76" s="3" t="s">
@@ -11427,7 +11445,7 @@
       <c r="Y76" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="Z76" s="3" t="s">
+      <c r="Z76" s="8" t="s">
         <v>1088</v>
       </c>
       <c r="AB76" t="s">
@@ -11451,14 +11469,14 @@
       <c r="AK76" t="s">
         <v>359</v>
       </c>
-      <c r="AL76" s="3" t="s">
+      <c r="AL76" s="12" t="s">
         <v>1439</v>
       </c>
-      <c r="AM76" s="3" t="s">
+      <c r="AM76" s="8" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -11468,7 +11486,7 @@
       <c r="C77" t="s">
         <v>364</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="12" t="s">
         <v>367</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -11477,7 +11495,7 @@
       <c r="G77" t="s">
         <v>364</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="12" t="s">
         <v>365</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -11486,7 +11504,7 @@
       <c r="K77" t="s">
         <v>364</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="12" t="s">
         <v>558</v>
       </c>
       <c r="M77" s="3" t="s">
@@ -11495,16 +11513,16 @@
       <c r="O77" t="s">
         <v>364</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="P77" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="Q77" s="8" t="s">
         <v>722</v>
       </c>
       <c r="S77" t="s">
         <v>916</v>
       </c>
-      <c r="T77" s="3" t="s">
+      <c r="T77" s="12" t="s">
         <v>917</v>
       </c>
       <c r="U77" s="3" t="s">
@@ -11516,7 +11534,7 @@
       <c r="Y77" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="Z77" s="3" t="s">
+      <c r="Z77" s="8" t="s">
         <v>1091</v>
       </c>
       <c r="AB77" t="s">
@@ -11540,14 +11558,14 @@
       <c r="AK77" t="s">
         <v>364</v>
       </c>
-      <c r="AL77" s="3" t="s">
+      <c r="AL77" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="AM77" s="3" t="s">
+      <c r="AM77" s="8" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -11557,7 +11575,7 @@
       <c r="C78" t="s">
         <v>369</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="12" t="s">
         <v>372</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -11566,7 +11584,7 @@
       <c r="G78" t="s">
         <v>369</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="12" t="s">
         <v>370</v>
       </c>
       <c r="I78" s="2" t="s">
@@ -11575,7 +11593,7 @@
       <c r="K78" t="s">
         <v>369</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="L78" s="12" t="s">
         <v>560</v>
       </c>
       <c r="M78" s="2" t="s">
@@ -11584,16 +11602,16 @@
       <c r="O78" t="s">
         <v>369</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="P78" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="Q78" s="9" t="s">
         <v>724</v>
       </c>
       <c r="S78" t="s">
         <v>919</v>
       </c>
-      <c r="T78" s="3" t="s">
+      <c r="T78" s="12" t="s">
         <v>920</v>
       </c>
       <c r="U78" s="2" t="s">
@@ -11605,7 +11623,7 @@
       <c r="Y78" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="Z78" s="2" t="s">
+      <c r="Z78" s="9" t="s">
         <v>1093</v>
       </c>
       <c r="AB78" t="s">
@@ -11629,14 +11647,14 @@
       <c r="AK78" t="s">
         <v>369</v>
       </c>
-      <c r="AL78" s="3" t="s">
+      <c r="AL78" s="12" t="s">
         <v>1443</v>
       </c>
-      <c r="AM78" s="2" t="s">
+      <c r="AM78" s="9" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -11646,7 +11664,7 @@
       <c r="C79" t="s">
         <v>374</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="12" t="s">
         <v>377</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -11655,7 +11673,7 @@
       <c r="G79" t="s">
         <v>374</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="12" t="s">
         <v>375</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -11664,7 +11682,7 @@
       <c r="K79" t="s">
         <v>374</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="L79" s="12" t="s">
         <v>562</v>
       </c>
       <c r="M79" s="3" t="s">
@@ -11673,16 +11691,16 @@
       <c r="O79" t="s">
         <v>374</v>
       </c>
-      <c r="P79" s="3" t="s">
+      <c r="P79" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="Q79" s="8" t="s">
         <v>726</v>
       </c>
       <c r="S79" t="s">
         <v>922</v>
       </c>
-      <c r="T79" s="3" t="s">
+      <c r="T79" s="12" t="s">
         <v>923</v>
       </c>
       <c r="U79" s="3" t="s">
@@ -11694,7 +11712,7 @@
       <c r="Y79" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="Z79" s="3" t="s">
+      <c r="Z79" s="8" t="s">
         <v>1095</v>
       </c>
       <c r="AB79" t="s">
@@ -11718,14 +11736,14 @@
       <c r="AK79" t="s">
         <v>374</v>
       </c>
-      <c r="AL79" s="3" t="s">
+      <c r="AL79" s="12" t="s">
         <v>1445</v>
       </c>
-      <c r="AM79" s="3" t="s">
+      <c r="AM79" s="8" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -11735,7 +11753,7 @@
       <c r="C80" t="s">
         <v>379</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="13" t="s">
         <v>382</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -11744,7 +11762,7 @@
       <c r="G80" t="s">
         <v>379</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="13" t="s">
         <v>380</v>
       </c>
       <c r="I80" s="3" t="s">
@@ -11753,7 +11771,7 @@
       <c r="K80" t="s">
         <v>379</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L80" s="13" t="s">
         <v>564</v>
       </c>
       <c r="M80" s="3" t="s">
@@ -11762,16 +11780,16 @@
       <c r="O80" t="s">
         <v>727</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="P80" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="Q80" s="3" t="s">
+      <c r="Q80" s="8" t="s">
         <v>729</v>
       </c>
       <c r="S80" t="s">
         <v>925</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="T80" s="13" t="s">
         <v>926</v>
       </c>
       <c r="U80" s="2" t="s">
@@ -11783,7 +11801,7 @@
       <c r="Y80" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="Z80" s="3" t="s">
+      <c r="Z80" s="8" t="s">
         <v>1097</v>
       </c>
       <c r="AB80" t="s">
@@ -11807,14 +11825,14 @@
       <c r="AK80" t="s">
         <v>727</v>
       </c>
-      <c r="AL80" s="3" t="s">
+      <c r="AL80" s="12" t="s">
         <v>1447</v>
       </c>
-      <c r="AM80" s="3" t="s">
+      <c r="AM80" s="8" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -11890,11 +11908,11 @@
       <c r="AL81" t="s">
         <v>91</v>
       </c>
-      <c r="AM81" t="s">
+      <c r="AM81" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -11974,7 +11992,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>388</v>
       </c>
@@ -11993,10 +12011,10 @@
       <c r="G83" t="s">
         <v>389</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="8" t="s">
         <v>391</v>
       </c>
       <c r="K83" t="s">
@@ -12011,10 +12029,10 @@
       <c r="O83" t="s">
         <v>732</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="Q83" s="8" t="s">
         <v>734</v>
       </c>
       <c r="S83" t="s">
@@ -12063,7 +12081,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -12082,10 +12100,10 @@
       <c r="G84" t="s">
         <v>394</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="8" t="s">
         <v>396</v>
       </c>
       <c r="K84" t="s">
@@ -12100,10 +12118,10 @@
       <c r="O84" t="s">
         <v>394</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="P84" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="Q84" s="8" t="s">
         <v>736</v>
       </c>
       <c r="S84" t="s">
@@ -12152,7 +12170,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -12171,10 +12189,10 @@
       <c r="G85" t="s">
         <v>400</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="8" t="s">
         <v>402</v>
       </c>
       <c r="K85" t="s">
@@ -12189,10 +12207,10 @@
       <c r="O85" t="s">
         <v>400</v>
       </c>
-      <c r="P85" s="3" t="s">
+      <c r="P85" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="Q85" s="8" t="s">
         <v>738</v>
       </c>
       <c r="S85" t="s">
@@ -12241,7 +12259,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -12260,10 +12278,10 @@
       <c r="G86" t="s">
         <v>406</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="8" t="s">
         <v>408</v>
       </c>
       <c r="K86" t="s">
@@ -12278,10 +12296,10 @@
       <c r="O86" t="s">
         <v>409</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="P86" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="Q86" s="2" t="s">
+      <c r="Q86" s="9" t="s">
         <v>740</v>
       </c>
       <c r="S86" t="s">
@@ -12330,7 +12348,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -12349,10 +12367,10 @@
       <c r="G87" t="s">
         <v>412</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="8" t="s">
         <v>414</v>
       </c>
       <c r="K87" t="s">
@@ -12367,10 +12385,10 @@
       <c r="O87" t="s">
         <v>741</v>
       </c>
-      <c r="P87" s="2" t="s">
+      <c r="P87" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="Q87" s="3" t="s">
+      <c r="Q87" s="8" t="s">
         <v>743</v>
       </c>
       <c r="S87" t="s">
@@ -12419,7 +12437,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -12438,10 +12456,10 @@
       <c r="G88" t="s">
         <v>418</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" s="8" t="s">
         <v>420</v>
       </c>
       <c r="K88" t="s">
@@ -12456,10 +12474,10 @@
       <c r="O88" t="s">
         <v>418</v>
       </c>
-      <c r="P88" s="3" t="s">
+      <c r="P88" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="Q88" s="3" t="s">
+      <c r="Q88" s="8" t="s">
         <v>745</v>
       </c>
       <c r="S88" t="s">
@@ -12508,7 +12526,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -12588,7 +12606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -12668,7 +12686,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -12730,7 +12748,7 @@
         <v>1.9696969696969699</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>

--- a/all_data/all_regression.xlsx
+++ b/all_data/all_regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC0566-77A3-489A-BCAE-1B8791242F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB2559-3302-4B17-A36E-B25019AC1C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4593,15 +4593,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4884,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AJ99" sqref="AJ99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4917,51 +4917,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>1469</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>1470</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>1471</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>1472</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="X1" s="7" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="X1" s="13" t="s">
         <v>1119</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AB1" s="7" t="s">
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AB1" s="13" t="s">
         <v>1212</v>
       </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AF1" s="7" t="s">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AF1" s="13" t="s">
         <v>1302</v>
       </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AK1" s="7" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AK1" s="13" t="s">
         <v>1451</v>
       </c>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5676,7 +5676,7 @@
       <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E10" t="s">
@@ -5756,46 +5756,46 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>448</v>
       </c>
       <c r="O11" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>597</v>
       </c>
       <c r="S11" t="s">
         <v>768</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="U11" s="7" t="s">
         <v>770</v>
       </c>
       <c r="X11" t="s">
@@ -5804,7 +5804,7 @@
       <c r="Y11" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="Z11" s="8" t="s">
         <v>965</v>
       </c>
       <c r="AB11" t="s">
@@ -5822,16 +5822,16 @@
       <c r="AG11" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="AH11" s="8" t="s">
+      <c r="AH11" s="7" t="s">
         <v>1222</v>
       </c>
       <c r="AK11" t="s">
         <v>1128</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AL11" s="11" t="s">
         <v>1319</v>
       </c>
-      <c r="AM11" s="8" t="s">
+      <c r="AM11" s="7" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -5845,46 +5845,46 @@
       <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K12" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>450</v>
       </c>
       <c r="O12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="7" t="s">
         <v>599</v>
       </c>
       <c r="S12" t="s">
         <v>771</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="U12" s="7" t="s">
         <v>773</v>
       </c>
       <c r="X12" t="s">
@@ -5893,7 +5893,7 @@
       <c r="Y12" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Z12" s="7" t="s">
         <v>967</v>
       </c>
       <c r="AB12" t="s">
@@ -5911,16 +5911,16 @@
       <c r="AG12" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="AH12" s="8" t="s">
+      <c r="AH12" s="7" t="s">
         <v>1223</v>
       </c>
       <c r="AK12" t="s">
         <v>64</v>
       </c>
-      <c r="AL12" s="12" t="s">
+      <c r="AL12" s="11" t="s">
         <v>1321</v>
       </c>
-      <c r="AM12" s="8" t="s">
+      <c r="AM12" s="7" t="s">
         <v>1322</v>
       </c>
     </row>
@@ -5934,46 +5934,46 @@
       <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>74</v>
       </c>
       <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>452</v>
       </c>
       <c r="O13" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="8" t="s">
         <v>601</v>
       </c>
       <c r="S13" t="s">
         <v>774</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="U13" s="7" t="s">
         <v>776</v>
       </c>
       <c r="X13" t="s">
@@ -5982,7 +5982,7 @@
       <c r="Y13" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Z13" s="7" t="s">
         <v>969</v>
       </c>
       <c r="AB13" t="s">
@@ -6000,16 +6000,16 @@
       <c r="AG13" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="AH13" s="8" t="s">
+      <c r="AH13" s="7" t="s">
         <v>1224</v>
       </c>
       <c r="AK13" t="s">
         <v>69</v>
       </c>
-      <c r="AL13" s="12" t="s">
+      <c r="AL13" s="11" t="s">
         <v>1323</v>
       </c>
-      <c r="AM13" s="8" t="s">
+      <c r="AM13" s="7" t="s">
         <v>1324</v>
       </c>
     </row>
@@ -6023,46 +6023,46 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>454</v>
       </c>
       <c r="O14" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>603</v>
       </c>
       <c r="S14" t="s">
         <v>777</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="T14" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="U14" s="8" t="s">
+      <c r="U14" s="7" t="s">
         <v>779</v>
       </c>
       <c r="X14" t="s">
@@ -6071,7 +6071,7 @@
       <c r="Y14" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="Z14" s="7" t="s">
         <v>971</v>
       </c>
       <c r="AB14" t="s">
@@ -6089,16 +6089,16 @@
       <c r="AG14" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="AH14" s="8" t="s">
+      <c r="AH14" s="7" t="s">
         <v>1225</v>
       </c>
       <c r="AK14" t="s">
         <v>75</v>
       </c>
-      <c r="AL14" s="12" t="s">
+      <c r="AL14" s="11" t="s">
         <v>1325</v>
       </c>
-      <c r="AM14" s="8" t="s">
+      <c r="AM14" s="7" t="s">
         <v>1326</v>
       </c>
     </row>
@@ -6112,46 +6112,46 @@
       <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>82</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>456</v>
       </c>
       <c r="O15" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="7" t="s">
         <v>605</v>
       </c>
       <c r="S15" t="s">
         <v>780</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="U15" s="8" t="s">
+      <c r="U15" s="7" t="s">
         <v>782</v>
       </c>
       <c r="X15" t="s">
@@ -6160,7 +6160,7 @@
       <c r="Y15" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="Z15" s="8" t="s">
+      <c r="Z15" s="7" t="s">
         <v>973</v>
       </c>
       <c r="AB15" t="s">
@@ -6178,16 +6178,16 @@
       <c r="AG15" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="AH15" s="8" t="s">
+      <c r="AH15" s="7" t="s">
         <v>1226</v>
       </c>
       <c r="AK15" t="s">
         <v>1327</v>
       </c>
-      <c r="AL15" s="12" t="s">
+      <c r="AL15" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="AM15" s="9" t="s">
+      <c r="AM15" s="8" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -6201,46 +6201,46 @@
       <c r="C16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>87</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="7" t="s">
         <v>457</v>
       </c>
       <c r="O16" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="7" t="s">
         <v>607</v>
       </c>
       <c r="S16" t="s">
         <v>783</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="T16" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="U16" s="8" t="s">
+      <c r="U16" s="7" t="s">
         <v>785</v>
       </c>
       <c r="X16" t="s">
@@ -6249,7 +6249,7 @@
       <c r="Y16" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="Z16" s="7" t="s">
         <v>975</v>
       </c>
       <c r="AB16" t="s">
@@ -6267,16 +6267,16 @@
       <c r="AG16" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="AH16" s="8" t="s">
+      <c r="AH16" s="7" t="s">
         <v>1227</v>
       </c>
       <c r="AK16" t="s">
         <v>85</v>
       </c>
-      <c r="AL16" s="12" t="s">
+      <c r="AL16" s="11" t="s">
         <v>1330</v>
       </c>
-      <c r="AM16" s="8" t="s">
+      <c r="AM16" s="7" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>91</v>
       </c>
       <c r="I17" t="s">
@@ -6450,19 +6450,19 @@
       <c r="C19" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K19" t="s">
@@ -6477,16 +6477,16 @@
       <c r="O19" t="s">
         <v>99</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S19" t="s">
         <v>786</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="11" t="s">
         <v>787</v>
       </c>
       <c r="U19" s="3" t="s">
@@ -6498,7 +6498,7 @@
       <c r="Y19" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="Z19" s="8" t="s">
+      <c r="Z19" s="7" t="s">
         <v>980</v>
       </c>
       <c r="AB19" t="s">
@@ -6522,10 +6522,10 @@
       <c r="AK19" t="s">
         <v>978</v>
       </c>
-      <c r="AL19" s="13" t="s">
+      <c r="AL19" s="12" t="s">
         <v>1334</v>
       </c>
-      <c r="AM19" s="8" t="s">
+      <c r="AM19" s="7" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -6539,19 +6539,19 @@
       <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G20" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K20" t="s">
@@ -6566,16 +6566,16 @@
       <c r="O20" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>612</v>
       </c>
       <c r="S20" t="s">
         <v>789</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="T20" s="11" t="s">
         <v>790</v>
       </c>
       <c r="U20" s="3" t="s">
@@ -6587,7 +6587,7 @@
       <c r="Y20" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="Z20" s="8" t="s">
+      <c r="Z20" s="7" t="s">
         <v>983</v>
       </c>
       <c r="AB20" t="s">
@@ -6611,10 +6611,10 @@
       <c r="AK20" t="s">
         <v>104</v>
       </c>
-      <c r="AL20" s="12" t="s">
+      <c r="AL20" s="11" t="s">
         <v>1336</v>
       </c>
-      <c r="AM20" s="8" t="s">
+      <c r="AM20" s="7" t="s">
         <v>1337</v>
       </c>
     </row>
@@ -6628,19 +6628,19 @@
       <c r="C21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G21" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K21" t="s">
@@ -6655,16 +6655,16 @@
       <c r="O21" t="s">
         <v>613</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="8" t="s">
         <v>615</v>
       </c>
       <c r="S21" t="s">
         <v>792</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T21" s="11" t="s">
         <v>793</v>
       </c>
       <c r="U21" s="3" t="s">
@@ -6676,7 +6676,7 @@
       <c r="Y21" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="Z21" s="7" t="s">
         <v>986</v>
       </c>
       <c r="AB21" t="s">
@@ -6700,10 +6700,10 @@
       <c r="AK21" t="s">
         <v>1338</v>
       </c>
-      <c r="AL21" s="12" t="s">
+      <c r="AL21" s="11" t="s">
         <v>1339</v>
       </c>
-      <c r="AM21" s="8" t="s">
+      <c r="AM21" s="7" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -6717,19 +6717,19 @@
       <c r="C22" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G22" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>116</v>
       </c>
       <c r="K22" t="s">
@@ -6744,16 +6744,16 @@
       <c r="O22" t="s">
         <v>616</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>618</v>
       </c>
       <c r="S22" t="s">
         <v>795</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="12" t="s">
         <v>796</v>
       </c>
       <c r="U22" s="2" t="s">
@@ -6765,7 +6765,7 @@
       <c r="Y22" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="Z22" s="8" t="s">
+      <c r="Z22" s="7" t="s">
         <v>988</v>
       </c>
       <c r="AB22" t="s">
@@ -6789,10 +6789,10 @@
       <c r="AK22" t="s">
         <v>616</v>
       </c>
-      <c r="AL22" s="12" t="s">
+      <c r="AL22" s="11" t="s">
         <v>1341</v>
       </c>
-      <c r="AM22" s="8" t="s">
+      <c r="AM22" s="7" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -6806,19 +6806,19 @@
       <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G23" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>121</v>
       </c>
       <c r="K23" t="s">
@@ -6833,16 +6833,16 @@
       <c r="O23" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="7" t="s">
         <v>620</v>
       </c>
       <c r="S23" t="s">
         <v>798</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" s="11" t="s">
         <v>799</v>
       </c>
       <c r="U23" s="2" t="s">
@@ -6854,7 +6854,7 @@
       <c r="Y23" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="Z23" s="8" t="s">
+      <c r="Z23" s="7" t="s">
         <v>990</v>
       </c>
       <c r="AB23" t="s">
@@ -6878,10 +6878,10 @@
       <c r="AK23" t="s">
         <v>119</v>
       </c>
-      <c r="AL23" s="12" t="s">
+      <c r="AL23" s="11" t="s">
         <v>1343</v>
       </c>
-      <c r="AM23" s="8" t="s">
+      <c r="AM23" s="7" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -6895,19 +6895,19 @@
       <c r="C24" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>128</v>
       </c>
       <c r="G24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>126</v>
       </c>
       <c r="K24" t="s">
@@ -6922,16 +6922,16 @@
       <c r="O24" t="s">
         <v>621</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="8" t="s">
         <v>623</v>
       </c>
       <c r="S24" t="s">
         <v>801</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" s="11" t="s">
         <v>802</v>
       </c>
       <c r="U24" s="3" t="s">
@@ -6943,7 +6943,7 @@
       <c r="Y24" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="Z24" s="8" t="s">
+      <c r="Z24" s="7" t="s">
         <v>992</v>
       </c>
       <c r="AB24" t="s">
@@ -6967,10 +6967,10 @@
       <c r="AK24" t="s">
         <v>124</v>
       </c>
-      <c r="AL24" s="12" t="s">
+      <c r="AL24" s="11" t="s">
         <v>1345</v>
       </c>
-      <c r="AM24" s="8" t="s">
+      <c r="AM24" s="7" t="s">
         <v>1346</v>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       <c r="AK27" t="s">
         <v>1348</v>
       </c>
-      <c r="AL27" s="12" t="s">
+      <c r="AL27" s="11" t="s">
         <v>1349</v>
       </c>
       <c r="AM27" s="3" t="s">
@@ -7305,7 +7305,7 @@
       <c r="AK28" t="s">
         <v>141</v>
       </c>
-      <c r="AL28" s="12" t="s">
+      <c r="AL28" s="11" t="s">
         <v>1351</v>
       </c>
       <c r="AM28" s="3" t="s">
@@ -7394,7 +7394,7 @@
       <c r="AK29" t="s">
         <v>146</v>
       </c>
-      <c r="AL29" s="12" t="s">
+      <c r="AL29" s="11" t="s">
         <v>1353</v>
       </c>
       <c r="AM29" s="2" t="s">
@@ -7483,7 +7483,7 @@
       <c r="AK30" t="s">
         <v>151</v>
       </c>
-      <c r="AL30" s="12" t="s">
+      <c r="AL30" s="11" t="s">
         <v>1355</v>
       </c>
       <c r="AM30" s="2" t="s">
@@ -7572,7 +7572,7 @@
       <c r="AK31" t="s">
         <v>156</v>
       </c>
-      <c r="AL31" s="12" t="s">
+      <c r="AL31" s="11" t="s">
         <v>1357</v>
       </c>
       <c r="AM31" s="2" t="s">
@@ -7661,7 +7661,7 @@
       <c r="AK32" t="s">
         <v>1359</v>
       </c>
-      <c r="AL32" s="12" t="s">
+      <c r="AL32" s="11" t="s">
         <v>1360</v>
       </c>
       <c r="AM32" s="3" t="s">
@@ -7824,7 +7824,7 @@
       <c r="AL34" t="s">
         <v>1362</v>
       </c>
-      <c r="AM34" s="10" t="s">
+      <c r="AM34" s="9" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -7838,7 +7838,7 @@
       <c r="C35" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -7847,7 +7847,7 @@
       <c r="G35" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="11" t="s">
         <v>171</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -7856,7 +7856,7 @@
       <c r="K35" t="s">
         <v>170</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="11" t="s">
         <v>486</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -7865,16 +7865,16 @@
       <c r="O35" t="s">
         <v>170</v>
       </c>
-      <c r="P35" s="12" t="s">
+      <c r="P35" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="7" t="s">
         <v>643</v>
       </c>
       <c r="S35" t="s">
         <v>822</v>
       </c>
-      <c r="T35" s="12" t="s">
+      <c r="T35" s="11" t="s">
         <v>823</v>
       </c>
       <c r="U35" s="3" t="s">
@@ -7895,7 +7895,7 @@
       <c r="AC35" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="AD35" s="8" t="s">
+      <c r="AD35" s="7" t="s">
         <v>1157</v>
       </c>
       <c r="AF35" t="s">
@@ -7910,10 +7910,10 @@
       <c r="AK35" t="s">
         <v>170</v>
       </c>
-      <c r="AL35" s="12" t="s">
+      <c r="AL35" s="11" t="s">
         <v>1364</v>
       </c>
-      <c r="AM35" s="8" t="s">
+      <c r="AM35" s="7" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       <c r="C36" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>178</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -7936,7 +7936,7 @@
       <c r="G36" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="11" t="s">
         <v>176</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -7945,7 +7945,7 @@
       <c r="K36" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="11" t="s">
         <v>488</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -7954,16 +7954,16 @@
       <c r="O36" t="s">
         <v>175</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="P36" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="7" t="s">
         <v>645</v>
       </c>
       <c r="S36" t="s">
         <v>825</v>
       </c>
-      <c r="T36" s="12" t="s">
+      <c r="T36" s="11" t="s">
         <v>826</v>
       </c>
       <c r="U36" s="3" t="s">
@@ -7984,7 +7984,7 @@
       <c r="AC36" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="AD36" s="8" t="s">
+      <c r="AD36" s="7" t="s">
         <v>1158</v>
       </c>
       <c r="AF36" t="s">
@@ -7999,10 +7999,10 @@
       <c r="AK36" t="s">
         <v>175</v>
       </c>
-      <c r="AL36" s="12" t="s">
+      <c r="AL36" s="11" t="s">
         <v>1366</v>
       </c>
-      <c r="AM36" s="8" t="s">
+      <c r="AM36" s="7" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       <c r="C37" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>183</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -8025,7 +8025,7 @@
       <c r="G37" t="s">
         <v>180</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="11" t="s">
         <v>181</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -8034,7 +8034,7 @@
       <c r="K37" t="s">
         <v>490</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="11" t="s">
         <v>491</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -8043,16 +8043,16 @@
       <c r="O37" t="s">
         <v>180</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="P37" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="7" t="s">
         <v>647</v>
       </c>
       <c r="S37" t="s">
         <v>828</v>
       </c>
-      <c r="T37" s="12" t="s">
+      <c r="T37" s="11" t="s">
         <v>829</v>
       </c>
       <c r="U37" s="3" t="s">
@@ -8073,7 +8073,7 @@
       <c r="AC37" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="AD37" s="8" t="s">
+      <c r="AD37" s="7" t="s">
         <v>1159</v>
       </c>
       <c r="AF37" t="s">
@@ -8088,10 +8088,10 @@
       <c r="AK37" t="s">
         <v>180</v>
       </c>
-      <c r="AL37" s="12" t="s">
+      <c r="AL37" s="11" t="s">
         <v>1368</v>
       </c>
-      <c r="AM37" s="8" t="s">
+      <c r="AM37" s="7" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -8114,7 +8114,7 @@
       <c r="G38" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="11" t="s">
         <v>186</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -8123,7 +8123,7 @@
       <c r="K38" t="s">
         <v>185</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="11" t="s">
         <v>493</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -8132,16 +8132,16 @@
       <c r="O38" t="s">
         <v>648</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="P38" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="7" t="s">
         <v>650</v>
       </c>
       <c r="S38" t="s">
         <v>831</v>
       </c>
-      <c r="T38" s="12" t="s">
+      <c r="T38" s="11" t="s">
         <v>832</v>
       </c>
       <c r="U38" s="2" t="s">
@@ -8162,7 +8162,7 @@
       <c r="AC38" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="AD38" s="8" t="s">
+      <c r="AD38" s="7" t="s">
         <v>1160</v>
       </c>
       <c r="AF38" t="s">
@@ -8177,10 +8177,10 @@
       <c r="AK38" t="s">
         <v>648</v>
       </c>
-      <c r="AL38" s="12" t="s">
+      <c r="AL38" s="11" t="s">
         <v>1370</v>
       </c>
-      <c r="AM38" s="8" t="s">
+      <c r="AM38" s="7" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="C39" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -8203,7 +8203,7 @@
       <c r="G39" t="s">
         <v>190</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>191</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -8212,7 +8212,7 @@
       <c r="K39" t="s">
         <v>495</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="11" t="s">
         <v>496</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -8221,16 +8221,16 @@
       <c r="O39" t="s">
         <v>190</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="P39" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="8" t="s">
         <v>652</v>
       </c>
       <c r="S39" t="s">
         <v>834</v>
       </c>
-      <c r="T39" s="12" t="s">
+      <c r="T39" s="11" t="s">
         <v>835</v>
       </c>
       <c r="U39" s="2" t="s">
@@ -8251,7 +8251,7 @@
       <c r="AC39" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="AD39" s="9" t="s">
+      <c r="AD39" s="8" t="s">
         <v>1161</v>
       </c>
       <c r="AF39" t="s">
@@ -8266,10 +8266,10 @@
       <c r="AK39" t="s">
         <v>190</v>
       </c>
-      <c r="AL39" s="13" t="s">
+      <c r="AL39" s="12" t="s">
         <v>1372</v>
       </c>
-      <c r="AM39" s="9" t="s">
+      <c r="AM39" s="8" t="s">
         <v>1373</v>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       <c r="C40" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>199</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -8292,7 +8292,7 @@
       <c r="G40" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="11" t="s">
         <v>197</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -8301,7 +8301,7 @@
       <c r="K40" t="s">
         <v>196</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="11" t="s">
         <v>498</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -8310,16 +8310,16 @@
       <c r="O40" t="s">
         <v>196</v>
       </c>
-      <c r="P40" s="12" t="s">
+      <c r="P40" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="7" t="s">
         <v>654</v>
       </c>
       <c r="S40" t="s">
         <v>837</v>
       </c>
-      <c r="T40" s="12" t="s">
+      <c r="T40" s="11" t="s">
         <v>838</v>
       </c>
       <c r="U40" s="3" t="s">
@@ -8340,7 +8340,7 @@
       <c r="AC40" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="AD40" s="8" t="s">
+      <c r="AD40" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="AF40" t="s">
@@ -8355,10 +8355,10 @@
       <c r="AK40" t="s">
         <v>196</v>
       </c>
-      <c r="AL40" s="12" t="s">
+      <c r="AL40" s="11" t="s">
         <v>1374</v>
       </c>
-      <c r="AM40" s="8" t="s">
+      <c r="AM40" s="7" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -8535,13 +8535,13 @@
       <c r="D43" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>212</v>
       </c>
       <c r="G43" t="s">
         <v>207</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>208</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -8553,7 +8553,7 @@
       <c r="L43" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="8" t="s">
         <v>503</v>
       </c>
       <c r="O43" t="s">
@@ -8562,7 +8562,7 @@
       <c r="P43" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="Q43" s="9" t="s">
+      <c r="Q43" s="8" t="s">
         <v>658</v>
       </c>
       <c r="S43" t="s">
@@ -8580,7 +8580,7 @@
       <c r="Y43" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="Z43" s="9" t="s">
+      <c r="Z43" s="8" t="s">
         <v>1025</v>
       </c>
       <c r="AB43" t="s">
@@ -8589,7 +8589,7 @@
       <c r="AC43" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="AD43" s="9" t="s">
+      <c r="AD43" s="8" t="s">
         <v>1165</v>
       </c>
       <c r="AF43" t="s">
@@ -8624,13 +8624,13 @@
       <c r="D44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>217</v>
       </c>
       <c r="G44" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="11" t="s">
         <v>214</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -8642,7 +8642,7 @@
       <c r="L44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="7" t="s">
         <v>504</v>
       </c>
       <c r="O44" t="s">
@@ -8651,7 +8651,7 @@
       <c r="P44" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="Q44" s="7" t="s">
         <v>660</v>
       </c>
       <c r="S44" t="s">
@@ -8669,7 +8669,7 @@
       <c r="Y44" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="Z44" s="8" t="s">
+      <c r="Z44" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="AB44" t="s">
@@ -8678,7 +8678,7 @@
       <c r="AC44" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="AD44" s="8" t="s">
+      <c r="AD44" s="7" t="s">
         <v>1166</v>
       </c>
       <c r="AF44" t="s">
@@ -8713,13 +8713,13 @@
       <c r="D45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>223</v>
       </c>
       <c r="G45" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>219</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -8731,7 +8731,7 @@
       <c r="L45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="7" t="s">
         <v>505</v>
       </c>
       <c r="O45" t="s">
@@ -8740,7 +8740,7 @@
       <c r="P45" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="Q45" s="7" t="s">
         <v>662</v>
       </c>
       <c r="S45" t="s">
@@ -8758,7 +8758,7 @@
       <c r="Y45" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="Z45" s="8" t="s">
+      <c r="Z45" s="7" t="s">
         <v>1029</v>
       </c>
       <c r="AB45" t="s">
@@ -8767,7 +8767,7 @@
       <c r="AC45" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="AD45" s="8" t="s">
+      <c r="AD45" s="7" t="s">
         <v>1167</v>
       </c>
       <c r="AF45" t="s">
@@ -8802,13 +8802,13 @@
       <c r="D46" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>228</v>
       </c>
       <c r="G46" t="s">
         <v>224</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="11" t="s">
         <v>225</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -8820,7 +8820,7 @@
       <c r="L46" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="7" t="s">
         <v>507</v>
       </c>
       <c r="O46" t="s">
@@ -8829,7 +8829,7 @@
       <c r="P46" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="7" t="s">
         <v>664</v>
       </c>
       <c r="S46" t="s">
@@ -8847,7 +8847,7 @@
       <c r="Y46" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="Z46" s="8" t="s">
+      <c r="Z46" s="7" t="s">
         <v>1032</v>
       </c>
       <c r="AB46" t="s">
@@ -8856,7 +8856,7 @@
       <c r="AC46" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="AD46" s="8" t="s">
+      <c r="AD46" s="7" t="s">
         <v>1168</v>
       </c>
       <c r="AF46" t="s">
@@ -8891,13 +8891,13 @@
       <c r="D47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>233</v>
       </c>
       <c r="G47" t="s">
         <v>229</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="11" t="s">
         <v>230</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -8909,7 +8909,7 @@
       <c r="L47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="7" t="s">
         <v>508</v>
       </c>
       <c r="O47" t="s">
@@ -8918,7 +8918,7 @@
       <c r="P47" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="7" t="s">
         <v>666</v>
       </c>
       <c r="S47" t="s">
@@ -8936,7 +8936,7 @@
       <c r="Y47" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="Z47" s="10" t="s">
+      <c r="Z47" s="9" t="s">
         <v>1035</v>
       </c>
       <c r="AB47" t="s">
@@ -8945,7 +8945,7 @@
       <c r="AC47" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="AD47" s="8" t="s">
+      <c r="AD47" s="7" t="s">
         <v>1169</v>
       </c>
       <c r="AF47" t="s">
@@ -8980,13 +8980,13 @@
       <c r="D48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>238</v>
       </c>
       <c r="G48" t="s">
         <v>234</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="11" t="s">
         <v>235</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -8998,7 +8998,7 @@
       <c r="L48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="7" t="s">
         <v>509</v>
       </c>
       <c r="O48" t="s">
@@ -9007,7 +9007,7 @@
       <c r="P48" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="7" t="s">
         <v>668</v>
       </c>
       <c r="S48" t="s">
@@ -9025,7 +9025,7 @@
       <c r="Y48" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="Z48" s="8" t="s">
+      <c r="Z48" s="7" t="s">
         <v>1037</v>
       </c>
       <c r="AB48" t="s">
@@ -9034,7 +9034,7 @@
       <c r="AC48" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AD48" s="7" t="s">
         <v>1170</v>
       </c>
       <c r="AF48" t="s">
@@ -9235,7 +9235,7 @@
       <c r="G51" t="s">
         <v>245</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="11" t="s">
         <v>246</v>
       </c>
       <c r="I51" s="3" t="s">
@@ -9247,7 +9247,7 @@
       <c r="L51" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="7" t="s">
         <v>513</v>
       </c>
       <c r="O51" t="s">
@@ -9301,7 +9301,7 @@
       <c r="AL51" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="AM51" t="s">
+      <c r="AM51" s="9" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       <c r="G52" t="s">
         <v>251</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="11" t="s">
         <v>252</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -9336,7 +9336,7 @@
       <c r="L52" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="7" t="s">
         <v>515</v>
       </c>
       <c r="O52" t="s">
@@ -9390,7 +9390,7 @@
       <c r="AL52" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="AM52" s="2" t="s">
+      <c r="AM52" s="8" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       <c r="G53" t="s">
         <v>251</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="11" t="s">
         <v>257</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -9425,7 +9425,7 @@
       <c r="L53" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="M53" s="9" t="s">
+      <c r="M53" s="8" t="s">
         <v>517</v>
       </c>
       <c r="O53" t="s">
@@ -9479,7 +9479,7 @@
       <c r="AL53" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="AM53" s="3" t="s">
+      <c r="AM53" s="7" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -9502,7 +9502,7 @@
       <c r="G54" t="s">
         <v>251</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="11" t="s">
         <v>261</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -9514,7 +9514,7 @@
       <c r="L54" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="7" t="s">
         <v>518</v>
       </c>
       <c r="O54" t="s">
@@ -9568,7 +9568,7 @@
       <c r="AL54" s="3" t="s">
         <v>1399</v>
       </c>
-      <c r="AM54" s="3" t="s">
+      <c r="AM54" s="7" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       <c r="G55" t="s">
         <v>265</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="11" t="s">
         <v>266</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -9603,7 +9603,7 @@
       <c r="L55" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="7" t="s">
         <v>521</v>
       </c>
       <c r="O55" t="s">
@@ -9657,7 +9657,7 @@
       <c r="AL55" s="3" t="s">
         <v>1400</v>
       </c>
-      <c r="AM55" s="3" t="s">
+      <c r="AM55" s="7" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -9680,7 +9680,7 @@
       <c r="G56" t="s">
         <v>270</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>271</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -9692,7 +9692,7 @@
       <c r="L56" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="M56" s="7" t="s">
         <v>523</v>
       </c>
       <c r="O56" t="s">
@@ -9746,7 +9746,7 @@
       <c r="AL56" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="AM56" s="3" t="s">
+      <c r="AM56" s="7" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
       <c r="C67" t="s">
         <v>318</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>321</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -10641,7 +10641,7 @@
       <c r="O67" t="s">
         <v>318</v>
       </c>
-      <c r="P67" s="12" t="s">
+      <c r="P67" s="11" t="s">
         <v>701</v>
       </c>
       <c r="Q67" s="3" t="s">
@@ -10650,10 +10650,10 @@
       <c r="S67" t="s">
         <v>892</v>
       </c>
-      <c r="T67" s="12" t="s">
+      <c r="T67" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="U67" s="8" t="s">
+      <c r="U67" s="7" t="s">
         <v>894</v>
       </c>
       <c r="X67" t="s">
@@ -10689,7 +10689,7 @@
       <c r="AL67" s="3" t="s">
         <v>1423</v>
       </c>
-      <c r="AM67" s="8" t="s">
+      <c r="AM67" s="7" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -10703,7 +10703,7 @@
       <c r="C68" t="s">
         <v>323</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>326</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -10730,7 +10730,7 @@
       <c r="O68" t="s">
         <v>323</v>
       </c>
-      <c r="P68" s="12" t="s">
+      <c r="P68" s="11" t="s">
         <v>703</v>
       </c>
       <c r="Q68" s="3" t="s">
@@ -10739,10 +10739,10 @@
       <c r="S68" t="s">
         <v>895</v>
       </c>
-      <c r="T68" s="12" t="s">
+      <c r="T68" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="U68" s="8" t="s">
+      <c r="U68" s="7" t="s">
         <v>897</v>
       </c>
       <c r="X68" t="s">
@@ -10778,7 +10778,7 @@
       <c r="AL68" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="AM68" s="8" t="s">
+      <c r="AM68" s="7" t="s">
         <v>1426</v>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
       <c r="C69" t="s">
         <v>328</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>331</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -10819,7 +10819,7 @@
       <c r="O69" t="s">
         <v>705</v>
       </c>
-      <c r="P69" s="12" t="s">
+      <c r="P69" s="11" t="s">
         <v>706</v>
       </c>
       <c r="Q69" s="2" t="s">
@@ -10828,10 +10828,10 @@
       <c r="S69" t="s">
         <v>898</v>
       </c>
-      <c r="T69" s="12" t="s">
+      <c r="T69" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="U69" s="8" t="s">
+      <c r="U69" s="7" t="s">
         <v>900</v>
       </c>
       <c r="X69" t="s">
@@ -10867,7 +10867,7 @@
       <c r="AL69" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="AM69" s="8" t="s">
+      <c r="AM69" s="7" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       <c r="C70" t="s">
         <v>336</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>337</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10908,7 +10908,7 @@
       <c r="O70" t="s">
         <v>336</v>
       </c>
-      <c r="P70" s="12" t="s">
+      <c r="P70" s="11" t="s">
         <v>708</v>
       </c>
       <c r="Q70" s="2" t="s">
@@ -10917,10 +10917,10 @@
       <c r="S70" t="s">
         <v>901</v>
       </c>
-      <c r="T70" s="12" t="s">
+      <c r="T70" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="U70" s="9" t="s">
+      <c r="U70" s="8" t="s">
         <v>903</v>
       </c>
       <c r="X70" t="s">
@@ -10956,7 +10956,7 @@
       <c r="AL70" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="AM70" s="8" t="s">
+      <c r="AM70" s="7" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -10970,7 +10970,7 @@
       <c r="C71" t="s">
         <v>339</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="12" t="s">
         <v>342</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -10997,7 +10997,7 @@
       <c r="O71" t="s">
         <v>710</v>
       </c>
-      <c r="P71" s="12" t="s">
+      <c r="P71" s="11" t="s">
         <v>711</v>
       </c>
       <c r="Q71" s="2" t="s">
@@ -11006,10 +11006,10 @@
       <c r="S71" t="s">
         <v>904</v>
       </c>
-      <c r="T71" s="13" t="s">
+      <c r="T71" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="U71" s="8" t="s">
+      <c r="U71" s="7" t="s">
         <v>906</v>
       </c>
       <c r="X71" t="s">
@@ -11045,7 +11045,7 @@
       <c r="AL71" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="AM71" s="9" t="s">
+      <c r="AM71" s="8" t="s">
         <v>1432</v>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
       <c r="C72" t="s">
         <v>344</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>347</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -11086,7 +11086,7 @@
       <c r="O72" t="s">
         <v>344</v>
       </c>
-      <c r="P72" s="12" t="s">
+      <c r="P72" s="11" t="s">
         <v>713</v>
       </c>
       <c r="Q72" s="2" t="s">
@@ -11095,10 +11095,10 @@
       <c r="S72" t="s">
         <v>907</v>
       </c>
-      <c r="T72" s="12" t="s">
+      <c r="T72" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="U72" s="8" t="s">
+      <c r="U72" s="7" t="s">
         <v>909</v>
       </c>
       <c r="X72" t="s">
@@ -11134,7 +11134,7 @@
       <c r="AL72" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="AM72" s="8" t="s">
+      <c r="AM72" s="7" t="s">
         <v>1434</v>
       </c>
     </row>
@@ -11308,43 +11308,43 @@
       <c r="C75" t="s">
         <v>354</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="7" t="s">
         <v>358</v>
       </c>
       <c r="G75" t="s">
         <v>354</v>
       </c>
-      <c r="H75" s="12" t="s">
+      <c r="H75" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="7" t="s">
         <v>356</v>
       </c>
       <c r="K75" t="s">
         <v>354</v>
       </c>
-      <c r="L75" s="12" t="s">
+      <c r="L75" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M75" s="7" t="s">
         <v>555</v>
       </c>
       <c r="O75" t="s">
         <v>354</v>
       </c>
-      <c r="P75" s="12" t="s">
+      <c r="P75" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="Q75" s="8" t="s">
+      <c r="Q75" s="7" t="s">
         <v>718</v>
       </c>
       <c r="S75" t="s">
         <v>910</v>
       </c>
-      <c r="T75" s="12" t="s">
+      <c r="T75" s="11" t="s">
         <v>911</v>
       </c>
       <c r="U75" s="3" t="s">
@@ -11356,7 +11356,7 @@
       <c r="Y75" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="Z75" s="8" t="s">
+      <c r="Z75" s="7" t="s">
         <v>1086</v>
       </c>
       <c r="AB75" t="s">
@@ -11380,10 +11380,10 @@
       <c r="AK75" t="s">
         <v>354</v>
       </c>
-      <c r="AL75" s="12" t="s">
+      <c r="AL75" s="11" t="s">
         <v>1437</v>
       </c>
-      <c r="AM75" s="8" t="s">
+      <c r="AM75" s="7" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -11397,43 +11397,43 @@
       <c r="C76" t="s">
         <v>359</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="7" t="s">
         <v>363</v>
       </c>
       <c r="G76" t="s">
         <v>359</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="7" t="s">
         <v>361</v>
       </c>
       <c r="K76" t="s">
         <v>359</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L76" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="M76" s="7" t="s">
         <v>557</v>
       </c>
       <c r="O76" t="s">
         <v>359</v>
       </c>
-      <c r="P76" s="12" t="s">
+      <c r="P76" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="Q76" s="8" t="s">
+      <c r="Q76" s="7" t="s">
         <v>720</v>
       </c>
       <c r="S76" t="s">
         <v>913</v>
       </c>
-      <c r="T76" s="12" t="s">
+      <c r="T76" s="11" t="s">
         <v>914</v>
       </c>
       <c r="U76" s="3" t="s">
@@ -11445,7 +11445,7 @@
       <c r="Y76" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="Z76" s="8" t="s">
+      <c r="Z76" s="7" t="s">
         <v>1088</v>
       </c>
       <c r="AB76" t="s">
@@ -11469,10 +11469,10 @@
       <c r="AK76" t="s">
         <v>359</v>
       </c>
-      <c r="AL76" s="12" t="s">
+      <c r="AL76" s="11" t="s">
         <v>1439</v>
       </c>
-      <c r="AM76" s="8" t="s">
+      <c r="AM76" s="7" t="s">
         <v>1440</v>
       </c>
     </row>
@@ -11486,43 +11486,43 @@
       <c r="C77" t="s">
         <v>364</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="7" t="s">
         <v>368</v>
       </c>
       <c r="G77" t="s">
         <v>364</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="7" t="s">
         <v>366</v>
       </c>
       <c r="K77" t="s">
         <v>364</v>
       </c>
-      <c r="L77" s="12" t="s">
+      <c r="L77" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M77" s="7" t="s">
         <v>559</v>
       </c>
       <c r="O77" t="s">
         <v>364</v>
       </c>
-      <c r="P77" s="12" t="s">
+      <c r="P77" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="Q77" s="8" t="s">
+      <c r="Q77" s="7" t="s">
         <v>722</v>
       </c>
       <c r="S77" t="s">
         <v>916</v>
       </c>
-      <c r="T77" s="12" t="s">
+      <c r="T77" s="11" t="s">
         <v>917</v>
       </c>
       <c r="U77" s="3" t="s">
@@ -11534,7 +11534,7 @@
       <c r="Y77" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="Z77" s="8" t="s">
+      <c r="Z77" s="7" t="s">
         <v>1091</v>
       </c>
       <c r="AB77" t="s">
@@ -11558,10 +11558,10 @@
       <c r="AK77" t="s">
         <v>364</v>
       </c>
-      <c r="AL77" s="12" t="s">
+      <c r="AL77" s="11" t="s">
         <v>1441</v>
       </c>
-      <c r="AM77" s="8" t="s">
+      <c r="AM77" s="7" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -11575,43 +11575,43 @@
       <c r="C78" t="s">
         <v>369</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="8" t="s">
         <v>373</v>
       </c>
       <c r="G78" t="s">
         <v>369</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="8" t="s">
         <v>371</v>
       </c>
       <c r="K78" t="s">
         <v>369</v>
       </c>
-      <c r="L78" s="12" t="s">
+      <c r="L78" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="8" t="s">
         <v>561</v>
       </c>
       <c r="O78" t="s">
         <v>369</v>
       </c>
-      <c r="P78" s="12" t="s">
+      <c r="P78" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="Q78" s="9" t="s">
+      <c r="Q78" s="8" t="s">
         <v>724</v>
       </c>
       <c r="S78" t="s">
         <v>919</v>
       </c>
-      <c r="T78" s="12" t="s">
+      <c r="T78" s="11" t="s">
         <v>920</v>
       </c>
       <c r="U78" s="2" t="s">
@@ -11623,7 +11623,7 @@
       <c r="Y78" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="Z78" s="9" t="s">
+      <c r="Z78" s="8" t="s">
         <v>1093</v>
       </c>
       <c r="AB78" t="s">
@@ -11647,10 +11647,10 @@
       <c r="AK78" t="s">
         <v>369</v>
       </c>
-      <c r="AL78" s="12" t="s">
+      <c r="AL78" s="11" t="s">
         <v>1443</v>
       </c>
-      <c r="AM78" s="9" t="s">
+      <c r="AM78" s="8" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -11664,43 +11664,43 @@
       <c r="C79" t="s">
         <v>374</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="7" t="s">
         <v>378</v>
       </c>
       <c r="G79" t="s">
         <v>374</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="7" t="s">
         <v>376</v>
       </c>
       <c r="K79" t="s">
         <v>374</v>
       </c>
-      <c r="L79" s="12" t="s">
+      <c r="L79" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="M79" s="7" t="s">
         <v>563</v>
       </c>
       <c r="O79" t="s">
         <v>374</v>
       </c>
-      <c r="P79" s="12" t="s">
+      <c r="P79" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="Q79" s="8" t="s">
+      <c r="Q79" s="7" t="s">
         <v>726</v>
       </c>
       <c r="S79" t="s">
         <v>922</v>
       </c>
-      <c r="T79" s="12" t="s">
+      <c r="T79" s="11" t="s">
         <v>923</v>
       </c>
       <c r="U79" s="3" t="s">
@@ -11712,7 +11712,7 @@
       <c r="Y79" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="Z79" s="8" t="s">
+      <c r="Z79" s="7" t="s">
         <v>1095</v>
       </c>
       <c r="AB79" t="s">
@@ -11736,10 +11736,10 @@
       <c r="AK79" t="s">
         <v>374</v>
       </c>
-      <c r="AL79" s="12" t="s">
+      <c r="AL79" s="11" t="s">
         <v>1445</v>
       </c>
-      <c r="AM79" s="8" t="s">
+      <c r="AM79" s="7" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -11753,43 +11753,43 @@
       <c r="C80" t="s">
         <v>379</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="7" t="s">
         <v>383</v>
       </c>
       <c r="G80" t="s">
         <v>379</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="7" t="s">
         <v>381</v>
       </c>
       <c r="K80" t="s">
         <v>379</v>
       </c>
-      <c r="L80" s="13" t="s">
+      <c r="L80" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="M80" s="7" t="s">
         <v>565</v>
       </c>
       <c r="O80" t="s">
         <v>727</v>
       </c>
-      <c r="P80" s="12" t="s">
+      <c r="P80" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="Q80" s="8" t="s">
+      <c r="Q80" s="7" t="s">
         <v>729</v>
       </c>
       <c r="S80" t="s">
         <v>925</v>
       </c>
-      <c r="T80" s="13" t="s">
+      <c r="T80" s="12" t="s">
         <v>926</v>
       </c>
       <c r="U80" s="2" t="s">
@@ -11801,7 +11801,7 @@
       <c r="Y80" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="Z80" s="8" t="s">
+      <c r="Z80" s="7" t="s">
         <v>1097</v>
       </c>
       <c r="AB80" t="s">
@@ -11825,10 +11825,10 @@
       <c r="AK80" t="s">
         <v>727</v>
       </c>
-      <c r="AL80" s="12" t="s">
+      <c r="AL80" s="11" t="s">
         <v>1447</v>
       </c>
-      <c r="AM80" s="8" t="s">
+      <c r="AM80" s="7" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
       <c r="AL81" t="s">
         <v>91</v>
       </c>
-      <c r="AM81" s="10" t="s">
+      <c r="AM81" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12011,10 +12011,10 @@
       <c r="G83" t="s">
         <v>389</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="7" t="s">
         <v>391</v>
       </c>
       <c r="K83" t="s">
@@ -12029,10 +12029,10 @@
       <c r="O83" t="s">
         <v>732</v>
       </c>
-      <c r="P83" s="12" t="s">
+      <c r="P83" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="Q83" s="8" t="s">
+      <c r="Q83" s="7" t="s">
         <v>734</v>
       </c>
       <c r="S83" t="s">
@@ -12100,10 +12100,10 @@
       <c r="G84" t="s">
         <v>394</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H84" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="7" t="s">
         <v>396</v>
       </c>
       <c r="K84" t="s">
@@ -12118,10 +12118,10 @@
       <c r="O84" t="s">
         <v>394</v>
       </c>
-      <c r="P84" s="12" t="s">
+      <c r="P84" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="Q84" s="8" t="s">
+      <c r="Q84" s="7" t="s">
         <v>736</v>
       </c>
       <c r="S84" t="s">
@@ -12189,10 +12189,10 @@
       <c r="G85" t="s">
         <v>400</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="H85" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="7" t="s">
         <v>402</v>
       </c>
       <c r="K85" t="s">
@@ -12207,10 +12207,10 @@
       <c r="O85" t="s">
         <v>400</v>
       </c>
-      <c r="P85" s="12" t="s">
+      <c r="P85" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="Q85" s="8" t="s">
+      <c r="Q85" s="7" t="s">
         <v>738</v>
       </c>
       <c r="S85" t="s">
@@ -12278,10 +12278,10 @@
       <c r="G86" t="s">
         <v>406</v>
       </c>
-      <c r="H86" s="12" t="s">
+      <c r="H86" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="7" t="s">
         <v>408</v>
       </c>
       <c r="K86" t="s">
@@ -12296,10 +12296,10 @@
       <c r="O86" t="s">
         <v>409</v>
       </c>
-      <c r="P86" s="12" t="s">
+      <c r="P86" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="Q86" s="9" t="s">
+      <c r="Q86" s="8" t="s">
         <v>740</v>
       </c>
       <c r="S86" t="s">
@@ -12367,10 +12367,10 @@
       <c r="G87" t="s">
         <v>412</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="7" t="s">
         <v>414</v>
       </c>
       <c r="K87" t="s">
@@ -12385,10 +12385,10 @@
       <c r="O87" t="s">
         <v>741</v>
       </c>
-      <c r="P87" s="13" t="s">
+      <c r="P87" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="Q87" s="8" t="s">
+      <c r="Q87" s="7" t="s">
         <v>743</v>
       </c>
       <c r="S87" t="s">
@@ -12456,10 +12456,10 @@
       <c r="G88" t="s">
         <v>418</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="7" t="s">
         <v>420</v>
       </c>
       <c r="K88" t="s">
@@ -12474,10 +12474,10 @@
       <c r="O88" t="s">
         <v>418</v>
       </c>
-      <c r="P88" s="12" t="s">
+      <c r="P88" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="Q88" s="8" t="s">
+      <c r="Q88" s="7" t="s">
         <v>745</v>
       </c>
       <c r="S88" t="s">

--- a/all_data/all_regression.xlsx
+++ b/all_data/all_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB2559-3302-4B17-A36E-B25019AC1C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C262D-6D80-4D14-8E60-B256EDE17516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8210" yWindow="3140" windowWidth="38660" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1693">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -4455,6 +4455,667 @@
   </si>
   <si>
     <t>v1:use ot loss in phase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8895,(0.00%:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0597,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2.1806,(5.87%:3)</t>
+  </si>
+  <si>
+    <t>2.0714,(0.57%:2)</t>
+  </si>
+  <si>
+    <t>2.0217,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.0589,(1.84%:3)</t>
+  </si>
+  <si>
+    <t>2.0182,(-0.17%:1)</t>
+  </si>
+  <si>
+    <t>2.0508,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.1142,(3.09%:3)</t>
+  </si>
+  <si>
+    <t>2.0316,(-0.94%:1)</t>
+  </si>
+  <si>
+    <t>2.0331,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.0145,(-0.91%:1)</t>
+  </si>
+  <si>
+    <t>2.0342,(0.05%:3)</t>
+  </si>
+  <si>
+    <t>2.0435,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2.3116,(13.12%:3)</t>
+  </si>
+  <si>
+    <t>2.0738,(1.49%:2)</t>
+  </si>
+  <si>
+    <t>2.3234,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.1694,(-6.63%:1)</t>
+  </si>
+  <si>
+    <t>2.9273,(25.99%:3)</t>
+  </si>
+  <si>
+    <t>2.73%</t>
+  </si>
+  <si>
+    <t>4.50%</t>
+  </si>
+  <si>
+    <t>1.9831,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>1.3376,(-32.55%:1)</t>
+  </si>
+  <si>
+    <t>1.6961,(-14.47%:2)</t>
+  </si>
+  <si>
+    <t>2.1048,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1.6762,(-20.36%:1)</t>
+  </si>
+  <si>
+    <t>2.2983,(9.19%:3)</t>
+  </si>
+  <si>
+    <t>1.3398,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1.1412,(-14.82%:1)</t>
+  </si>
+  <si>
+    <t>1.4629,(9.19%:3)</t>
+  </si>
+  <si>
+    <t>1.9374,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1.8632,(-3.83%:1)</t>
+  </si>
+  <si>
+    <t>2.1456,(10.74%:3)</t>
+  </si>
+  <si>
+    <t>1.9348,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1.5778,(-18.45%:1)</t>
+  </si>
+  <si>
+    <t>2.0562,(6.28%:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0247,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.2986,(-34.35%:1)</t>
+  </si>
+  <si>
+    <t>5.2060,(3.61%:3)</t>
+  </si>
+  <si>
+    <t>-20.73%</t>
+  </si>
+  <si>
+    <t>4.09%</t>
+  </si>
+  <si>
+    <t>0.4832,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.4843,(0.22%:3)</t>
+  </si>
+  <si>
+    <t>0.4820,(-0.26%:1)</t>
+  </si>
+  <si>
+    <t>0.4851,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.4924,(1.51%:3)</t>
+  </si>
+  <si>
+    <t>0.4865,(0.30%:2)</t>
+  </si>
+  <si>
+    <t>0.4656,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.4719,(1.36%:3)</t>
+  </si>
+  <si>
+    <t>0.4637,(-0.40%:1)</t>
+  </si>
+  <si>
+    <t>0.5004,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.5021,(0.33%:3)</t>
+  </si>
+  <si>
+    <t>0.4980,(-0.48%:1)</t>
+  </si>
+  <si>
+    <t>0.5186,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.5099,(-1.67%:1)</t>
+  </si>
+  <si>
+    <t>0.5183,(-0.05%:2)</t>
+  </si>
+  <si>
+    <t>0.8749,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.6306,(-27.92%:1)</t>
+  </si>
+  <si>
+    <t>0.8831,(0.94%:3)</t>
+  </si>
+  <si>
+    <t>-4.36%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>3.8322,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>3.7319,(-2.62%:1)</t>
+  </si>
+  <si>
+    <t>3.7943,(-0.99%:2)</t>
+  </si>
+  <si>
+    <t>3.7631,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>3.8280,(1.72%:2)</t>
+  </si>
+  <si>
+    <t>3.9061,(3.80%:3)</t>
+  </si>
+  <si>
+    <t>3.7039,(0.00%:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5796,(-3.36%:2)</t>
+  </si>
+  <si>
+    <t>3.5447,(-4.30%:1)</t>
+  </si>
+  <si>
+    <t>3.9151,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.8333,(-2.09%:1)</t>
+  </si>
+  <si>
+    <t>3.9261,(0.28%:3)</t>
+  </si>
+  <si>
+    <t>3.9463,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>3.8505,(-2.43%:1)</t>
+  </si>
+  <si>
+    <t>3.8851,(-1.55%:2)</t>
+  </si>
+  <si>
+    <t>11.8230,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>5.2252,(-55.80%:1)</t>
+  </si>
+  <si>
+    <t>11.7644,(-0.50%:2)</t>
+  </si>
+  <si>
+    <t>-10.76%</t>
+  </si>
+  <si>
+    <t>-0.54%</t>
+  </si>
+  <si>
+    <t>4.8096,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.0880,(-15.00%:1)</t>
+  </si>
+  <si>
+    <t>5.3455,(11.14%:3)</t>
+  </si>
+  <si>
+    <t>5.8366,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>4.5054,(-22.81%:1)</t>
+  </si>
+  <si>
+    <t>5.5147,(-5.51%:2)</t>
+  </si>
+  <si>
+    <t>5.1042,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>4.4246,(-13.31%:1)</t>
+  </si>
+  <si>
+    <t>4.7741,(-6.47%:2)</t>
+  </si>
+  <si>
+    <t>5.4970,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>4.7048,(-14.41%:1)</t>
+  </si>
+  <si>
+    <t>5.4409,(-1.02%:2)</t>
+  </si>
+  <si>
+    <t>4.9846,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>4.9716,(-0.26%:1)</t>
+  </si>
+  <si>
+    <t>4.9816,(-0.06%:2)</t>
+  </si>
+  <si>
+    <t>11.0116,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>6.7529,(-38.67%:1)</t>
+  </si>
+  <si>
+    <t>11.4696,(4.16%:3)</t>
+  </si>
+  <si>
+    <t>-17.41%</t>
+  </si>
+  <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>565.4896,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>560.0505,(-0.96%:1)</t>
+  </si>
+  <si>
+    <t>564.7320,(-0.13%:2)</t>
+  </si>
+  <si>
+    <t>604.1518,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>582.6709,(-3.56%:1)</t>
+  </si>
+  <si>
+    <t>588.7769,(-2.54%:2)</t>
+  </si>
+  <si>
+    <t>549.4801,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>547.4328,(-0.37%:1)</t>
+  </si>
+  <si>
+    <t>551.5148,(0.37%:3)</t>
+  </si>
+  <si>
+    <t>561.6000,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>572.8370,(2.00%:3)</t>
+  </si>
+  <si>
+    <t>555.9616,(-1.00%:1)</t>
+  </si>
+  <si>
+    <t>605.0028,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>588.8782,(-2.67%:1)</t>
+  </si>
+  <si>
+    <t>602.5593,(-0.40%:2)</t>
+  </si>
+  <si>
+    <t>1523.5922,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>662.8867,(-56.49%:1)</t>
+  </si>
+  <si>
+    <t>1539.4943,(1.04%:3)</t>
+  </si>
+  <si>
+    <t>-10.34%</t>
+  </si>
+  <si>
+    <t>-0.45%</t>
+  </si>
+  <si>
+    <t>0.0020,(3.45%:3)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.52%:2)</t>
+  </si>
+  <si>
+    <t>0.0020,(0.81%:2)</t>
+  </si>
+  <si>
+    <t>0.0020,(0.95%:3)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.57%:3)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.36%:2)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.62%:1)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.51%:2)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.63%:1)</t>
+  </si>
+  <si>
+    <t>0.0030,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.0022,(-26.59%:1)</t>
+  </si>
+  <si>
+    <t>0.0030,(1.65%:3)</t>
+  </si>
+  <si>
+    <t>-3.85%</t>
+  </si>
+  <si>
+    <t>0.40%</t>
+  </si>
+  <si>
+    <t>1.2276,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.4398,(17.28%:3)</t>
+  </si>
+  <si>
+    <t>1.2347,(0.58%:2)</t>
+  </si>
+  <si>
+    <t>1.2339,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.3417,(8.74%:3)</t>
+  </si>
+  <si>
+    <t>1.2355,(0.13%:2)</t>
+  </si>
+  <si>
+    <t>1.2761,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1.2520,(-1.89%:1)</t>
+  </si>
+  <si>
+    <t>1.2924,(1.28%:3)</t>
+  </si>
+  <si>
+    <t>1.1722,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.2910,(10.14%:3)</t>
+  </si>
+  <si>
+    <t>1.1814,(0.79%:2)</t>
+  </si>
+  <si>
+    <t>1.2159,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.2261,(0.84%:3)</t>
+  </si>
+  <si>
+    <t>1.2173,(0.12%:2)</t>
+  </si>
+  <si>
+    <t>1.3518,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1.3660,(1.05%:3)</t>
+  </si>
+  <si>
+    <t>1.3392,(-0.93%:1)</t>
+  </si>
+  <si>
+    <t>6.03%</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>0.8558,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.8477,(-0.94%:2)</t>
+  </si>
+  <si>
+    <t>0.8409,(-1.74%:1)</t>
+  </si>
+  <si>
+    <t>1.1790,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.8998,(-23.68%:1)</t>
+  </si>
+  <si>
+    <t>0.9396,(-20.30%:2)</t>
+  </si>
+  <si>
+    <t>0.8232,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.8262,(0.37%:2)</t>
+  </si>
+  <si>
+    <t>0.8270,(0.46%:3)</t>
+  </si>
+  <si>
+    <t>0.8774,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.8725,(-0.56%:2)</t>
+  </si>
+  <si>
+    <t>0.8707,(-0.76%:1)</t>
+  </si>
+  <si>
+    <t>0.8808,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8630,(-2.02%:1)</t>
+  </si>
+  <si>
+    <t>0.9017,(2.37%:3)</t>
+  </si>
+  <si>
+    <t>0.9674,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.9254,(-4.34%:1)</t>
+  </si>
+  <si>
+    <t>1.0130,(4.72%:3)</t>
+  </si>
+  <si>
+    <t>-5.19%</t>
+  </si>
+  <si>
+    <t>-2.54%</t>
+  </si>
+  <si>
+    <t>3.7701,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>1.3219,(-64.94%:1)</t>
+  </si>
+  <si>
+    <t>2.9167,(-22.64%:2)</t>
+  </si>
+  <si>
+    <t>4.4180,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>1.7296,(-60.85%:1)</t>
+  </si>
+  <si>
+    <t>3.3122,(-25.03%:2)</t>
+  </si>
+  <si>
+    <t>1.3788,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1.1011,(-20.14%:1)</t>
+  </si>
+  <si>
+    <t>1.5079,(9.36%:3)</t>
+  </si>
+  <si>
+    <t>4.6760,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>1.6674,(-64.34%:1)</t>
+  </si>
+  <si>
+    <t>4.4635,(-4.55%:2)</t>
+  </si>
+  <si>
+    <t>4.4040,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>1.4526,(-67.02%:1)</t>
+  </si>
+  <si>
+    <t>3.4417,(-21.85%:2)</t>
+  </si>
+  <si>
+    <t>11.7434,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.8891,(-75.40%:1)</t>
+  </si>
+  <si>
+    <t>13.2051,(12.45%:3)</t>
+  </si>
+  <si>
+    <t>-58.78%</t>
+  </si>
+  <si>
+    <t>-8.71%</t>
+  </si>
+  <si>
+    <t>10.9895,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>11.1727,(1.67%:3)</t>
+  </si>
+  <si>
+    <t>10.9344,(-0.50%:1)</t>
+  </si>
+  <si>
+    <t>11.0657,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>10.6854,(-3.44%:1)</t>
+  </si>
+  <si>
+    <t>10.9954,(-0.63%:2)</t>
+  </si>
+  <si>
+    <t>10.8337,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>10.7560,(-0.72%:1)</t>
+  </si>
+  <si>
+    <t>10.8926,(0.54%:3)</t>
+  </si>
+  <si>
+    <t>10.2152,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>10.6012,(3.78%:3)</t>
+  </si>
+  <si>
+    <t>10.4007,(1.82%:2)</t>
+  </si>
+  <si>
+    <t>11.1937,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>10.8916,(-2.70%:1)</t>
+  </si>
+  <si>
+    <t>11.2214,(0.25%:3)</t>
+  </si>
+  <si>
+    <t>26.4685,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>11.9993,(-54.67%:1)</t>
+  </si>
+  <si>
+    <t>17.9088,(-32.34%:2)</t>
+  </si>
+  <si>
+    <t>-9.35%</t>
+  </si>
+  <si>
+    <t>-5.14%</t>
+  </si>
+  <si>
+    <t>-12.00%</t>
+  </si>
+  <si>
+    <t>-0.70%</t>
+  </si>
+  <si>
+    <t>v3:use projection as pseudo label(same initial models)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4882,41 +5543,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AQ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AJ99" sqref="AJ99"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR64" sqref="AR64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.9140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C1" s="13" t="s">
         <v>1469</v>
       </c>
@@ -4962,8 +5626,13 @@
       </c>
       <c r="AL1" s="13"/>
       <c r="AM1" s="13"/>
+      <c r="AO1" s="13" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5051,8 +5720,17 @@
       <c r="AM2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5140,8 +5818,17 @@
       <c r="AM3" s="2" t="s">
         <v>1305</v>
       </c>
+      <c r="AO3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5229,8 +5916,17 @@
       <c r="AM4" s="2" t="s">
         <v>1307</v>
       </c>
+      <c r="AO4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>1480</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5318,8 +6014,17 @@
       <c r="AM5" s="2" t="s">
         <v>1309</v>
       </c>
+      <c r="AO5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>1483</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5407,8 +6112,17 @@
       <c r="AM6" s="3" t="s">
         <v>1312</v>
       </c>
+      <c r="AO6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5496,8 +6210,17 @@
       <c r="AM7" s="2" t="s">
         <v>1314</v>
       </c>
+      <c r="AO7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>1489</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5585,8 +6308,17 @@
       <c r="AM8" s="3" t="s">
         <v>1316</v>
       </c>
+      <c r="AO8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5665,8 +6397,17 @@
       <c r="AM9" t="s">
         <v>93</v>
       </c>
+      <c r="AO9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5745,8 +6486,17 @@
       <c r="AM10" t="s">
         <v>1318</v>
       </c>
+      <c r="AO10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>1494</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -5834,8 +6584,17 @@
       <c r="AM11" s="7" t="s">
         <v>1320</v>
       </c>
+      <c r="AO11" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>1497</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5923,8 +6682,17 @@
       <c r="AM12" s="7" t="s">
         <v>1322</v>
       </c>
+      <c r="AO12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6012,8 +6780,17 @@
       <c r="AM13" s="7" t="s">
         <v>1324</v>
       </c>
+      <c r="AO13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>1503</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6101,8 +6878,17 @@
       <c r="AM14" s="7" t="s">
         <v>1326</v>
       </c>
+      <c r="AO14" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AP14" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>1506</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6190,8 +6976,17 @@
       <c r="AM15" s="8" t="s">
         <v>1329</v>
       </c>
+      <c r="AO15" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>1509</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6279,8 +7074,17 @@
       <c r="AM16" s="7" t="s">
         <v>1331</v>
       </c>
+      <c r="AO16" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>1512</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -6359,8 +7163,17 @@
       <c r="AM17" t="s">
         <v>93</v>
       </c>
+      <c r="AO17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6439,8 +7252,17 @@
       <c r="AM18" t="s">
         <v>1333</v>
       </c>
+      <c r="AO18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1514</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -6528,8 +7350,17 @@
       <c r="AM19" s="7" t="s">
         <v>1335</v>
       </c>
+      <c r="AO19" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>1517</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -6617,8 +7448,17 @@
       <c r="AM20" s="7" t="s">
         <v>1337</v>
       </c>
+      <c r="AO20" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -6706,8 +7546,17 @@
       <c r="AM21" s="7" t="s">
         <v>1340</v>
       </c>
+      <c r="AO21" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AQ21" s="3" t="s">
+        <v>1523</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -6795,8 +7644,17 @@
       <c r="AM22" s="7" t="s">
         <v>1342</v>
       </c>
+      <c r="AO22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>1526</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -6884,8 +7742,17 @@
       <c r="AM23" s="7" t="s">
         <v>1344</v>
       </c>
+      <c r="AO23" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AQ23" s="3" t="s">
+        <v>1529</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6973,8 +7840,17 @@
       <c r="AM24" s="7" t="s">
         <v>1346</v>
       </c>
+      <c r="AO24" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>1532</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -7053,8 +7929,17 @@
       <c r="AM25" t="s">
         <v>239</v>
       </c>
+      <c r="AO25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -7133,8 +8018,17 @@
       <c r="AM26" t="s">
         <v>1347</v>
       </c>
+      <c r="AO26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>1534</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -7222,8 +8116,17 @@
       <c r="AM27" s="3" t="s">
         <v>1350</v>
       </c>
+      <c r="AO27" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AP27" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AQ27" s="3" t="s">
+        <v>1537</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -7303,7 +8206,7 @@
         <v>1241</v>
       </c>
       <c r="AK28" t="s">
-        <v>141</v>
+        <v>1474</v>
       </c>
       <c r="AL28" s="11" t="s">
         <v>1351</v>
@@ -7311,8 +8214,17 @@
       <c r="AM28" s="3" t="s">
         <v>1352</v>
       </c>
+      <c r="AO28" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AP28" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>1540</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -7400,8 +8312,17 @@
       <c r="AM29" s="2" t="s">
         <v>1354</v>
       </c>
+      <c r="AO29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AP29" s="11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>1543</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -7489,8 +8410,17 @@
       <c r="AM30" s="2" t="s">
         <v>1356</v>
       </c>
+      <c r="AO30" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>1546</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -7578,8 +8508,17 @@
       <c r="AM31" s="2" t="s">
         <v>1358</v>
       </c>
+      <c r="AO31" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AP31" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>1549</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -7667,8 +8606,17 @@
       <c r="AM32" s="3" t="s">
         <v>1361</v>
       </c>
+      <c r="AO32" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP32" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AQ32" s="3" t="s">
+        <v>1552</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -7747,8 +8695,17 @@
       <c r="AM33" t="s">
         <v>51</v>
       </c>
+      <c r="AO33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -7827,8 +8784,17 @@
       <c r="AM34" s="9" t="s">
         <v>1363</v>
       </c>
+      <c r="AO34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -7916,8 +8882,17 @@
       <c r="AM35" s="7" t="s">
         <v>1365</v>
       </c>
+      <c r="AO35" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AP35" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>1557</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -8005,8 +8980,17 @@
       <c r="AM36" s="7" t="s">
         <v>1367</v>
       </c>
+      <c r="AO36" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AP36" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AQ36" s="3" t="s">
+        <v>1560</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -8094,8 +9078,17 @@
       <c r="AM37" s="7" t="s">
         <v>1369</v>
       </c>
+      <c r="AO37" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AP37" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AQ37" s="3" t="s">
+        <v>1563</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -8183,8 +9176,17 @@
       <c r="AM38" s="7" t="s">
         <v>1371</v>
       </c>
+      <c r="AO38" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AP38" s="11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AQ38" s="3" t="s">
+        <v>1566</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -8272,8 +9274,17 @@
       <c r="AM39" s="8" t="s">
         <v>1373</v>
       </c>
+      <c r="AO39" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AQ39" s="3" t="s">
+        <v>1569</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -8361,8 +9372,17 @@
       <c r="AM40" s="7" t="s">
         <v>1375</v>
       </c>
+      <c r="AO40" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AP40" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AQ40" s="2" t="s">
+        <v>1572</v>
+      </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -8441,8 +9461,17 @@
       <c r="AM41" t="s">
         <v>93</v>
       </c>
+      <c r="AO41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -8521,8 +9550,17 @@
       <c r="AM42" t="s">
         <v>1377</v>
       </c>
+      <c r="AO42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>1574</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -8610,8 +9648,17 @@
       <c r="AM43" s="2" t="s">
         <v>1379</v>
       </c>
+      <c r="AO43" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AP43" s="11" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AQ43" s="3" t="s">
+        <v>1577</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -8699,8 +9746,17 @@
       <c r="AM44" s="3" t="s">
         <v>1381</v>
       </c>
+      <c r="AO44" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AP44" s="11" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AQ44" s="3" t="s">
+        <v>1580</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -8788,8 +9844,17 @@
       <c r="AM45" s="2" t="s">
         <v>1383</v>
       </c>
+      <c r="AO45" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AP45" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>1583</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -8877,8 +9942,17 @@
       <c r="AM46" s="3" t="s">
         <v>1385</v>
       </c>
+      <c r="AO46" t="s">
+        <v>1584</v>
+      </c>
+      <c r="AP46" s="12" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AQ46" s="3" t="s">
+        <v>1586</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -8966,8 +10040,17 @@
       <c r="AM47" s="2" t="s">
         <v>1388</v>
       </c>
+      <c r="AO47" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AP47" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AQ47" s="3" t="s">
+        <v>1589</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -9055,8 +10138,17 @@
       <c r="AM48" s="3" t="s">
         <v>1390</v>
       </c>
+      <c r="AO48" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AP48" s="11" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AQ48" s="2" t="s">
+        <v>1592</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -9135,8 +10227,17 @@
       <c r="AM49" t="s">
         <v>50</v>
       </c>
+      <c r="AO49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -9215,8 +10316,17 @@
       <c r="AM50" t="s">
         <v>1392</v>
       </c>
+      <c r="AO50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>1594</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -9304,8 +10414,17 @@
       <c r="AM51" s="9" t="s">
         <v>1394</v>
       </c>
+      <c r="AO51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AP51" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>1596</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -9393,8 +10512,17 @@
       <c r="AM52" s="8" t="s">
         <v>1396</v>
       </c>
+      <c r="AO52" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AP52" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AQ52" s="2" t="s">
+        <v>1598</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -9482,8 +10610,17 @@
       <c r="AM53" s="7" t="s">
         <v>1398</v>
       </c>
+      <c r="AO53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AP53" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -9571,8 +10708,17 @@
       <c r="AM54" s="7" t="s">
         <v>1174</v>
       </c>
+      <c r="AO54" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP54" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AQ54" s="3" t="s">
+        <v>1602</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -9660,8 +10806,17 @@
       <c r="AM55" s="7" t="s">
         <v>1401</v>
       </c>
+      <c r="AO55" t="s">
+        <v>519</v>
+      </c>
+      <c r="AP55" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AQ55" s="3" t="s">
+        <v>1604</v>
+      </c>
     </row>
-    <row r="56" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -9749,8 +10904,17 @@
       <c r="AM56" s="7" t="s">
         <v>1404</v>
       </c>
+      <c r="AO56" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AP56" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AQ56" s="2" t="s">
+        <v>1607</v>
+      </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -9829,8 +10993,17 @@
       <c r="AM57" t="s">
         <v>47</v>
       </c>
+      <c r="AO57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -9909,8 +11082,17 @@
       <c r="AM58" t="s">
         <v>1406</v>
       </c>
+      <c r="AO58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>1609</v>
+      </c>
     </row>
-    <row r="59" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>280</v>
       </c>
@@ -9998,8 +11180,17 @@
       <c r="AM59" s="3" t="s">
         <v>1408</v>
       </c>
+      <c r="AO59" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AP59" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AQ59" s="2" t="s">
+        <v>1612</v>
+      </c>
     </row>
-    <row r="60" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10087,8 +11278,17 @@
       <c r="AM60" s="3" t="s">
         <v>1411</v>
       </c>
+      <c r="AO60" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AP60" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AQ60" s="2" t="s">
+        <v>1615</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -10176,8 +11376,17 @@
       <c r="AM61" s="2" t="s">
         <v>1413</v>
       </c>
+      <c r="AO61" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AP61" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AQ61" s="2" t="s">
+        <v>1618</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -10265,8 +11474,17 @@
       <c r="AM62" s="2" t="s">
         <v>1416</v>
       </c>
+      <c r="AO62" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AP62" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AQ62" s="2" t="s">
+        <v>1621</v>
+      </c>
     </row>
-    <row r="63" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -10354,8 +11572,17 @@
       <c r="AM63" s="2" t="s">
         <v>1418</v>
       </c>
+      <c r="AO63" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AP63" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AQ63" s="2" t="s">
+        <v>1624</v>
+      </c>
     </row>
-    <row r="64" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -10443,8 +11670,17 @@
       <c r="AM64" s="2" t="s">
         <v>1421</v>
       </c>
+      <c r="AO64" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AP64" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AQ64" s="3" t="s">
+        <v>1627</v>
+      </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -10523,8 +11759,17 @@
       <c r="AM65" t="s">
         <v>49</v>
       </c>
+      <c r="AO65" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -10603,8 +11848,17 @@
       <c r="AM66" t="s">
         <v>1406</v>
       </c>
+      <c r="AO66" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>1629</v>
+      </c>
     </row>
-    <row r="67" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>317</v>
       </c>
@@ -10692,8 +11946,17 @@
       <c r="AM67" s="7" t="s">
         <v>1424</v>
       </c>
+      <c r="AO67" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AP67" s="11" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AQ67" s="3" t="s">
+        <v>1632</v>
+      </c>
     </row>
-    <row r="68" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -10781,8 +12044,17 @@
       <c r="AM68" s="7" t="s">
         <v>1426</v>
       </c>
+      <c r="AO68" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AP68" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AQ68" s="3" t="s">
+        <v>1635</v>
+      </c>
     </row>
-    <row r="69" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -10870,8 +12142,17 @@
       <c r="AM69" s="7" t="s">
         <v>1279</v>
       </c>
+      <c r="AO69" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AP69" s="12" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AQ69" s="2" t="s">
+        <v>1638</v>
+      </c>
     </row>
-    <row r="70" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -10959,8 +12240,17 @@
       <c r="AM70" s="7" t="s">
         <v>1430</v>
       </c>
+      <c r="AO70" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AP70" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AQ70" s="3" t="s">
+        <v>1641</v>
+      </c>
     </row>
-    <row r="71" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -11048,8 +12338,17 @@
       <c r="AM71" s="8" t="s">
         <v>1432</v>
       </c>
+      <c r="AO71" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AP71" s="11" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AQ71" s="2" t="s">
+        <v>1644</v>
+      </c>
     </row>
-    <row r="72" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -11137,8 +12436,17 @@
       <c r="AM72" s="7" t="s">
         <v>1434</v>
       </c>
+      <c r="AO72" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AP72" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AQ72" s="2" t="s">
+        <v>1647</v>
+      </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -11217,8 +12525,17 @@
       <c r="AM73" t="s">
         <v>49</v>
       </c>
+      <c r="AO73" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -11297,8 +12614,17 @@
       <c r="AM74" t="s">
         <v>1436</v>
       </c>
+      <c r="AO74" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>1649</v>
+      </c>
     </row>
-    <row r="75" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -11386,8 +12712,17 @@
       <c r="AM75" s="7" t="s">
         <v>1438</v>
       </c>
+      <c r="AO75" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AP75" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>1652</v>
+      </c>
     </row>
-    <row r="76" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -11475,8 +12810,17 @@
       <c r="AM76" s="7" t="s">
         <v>1440</v>
       </c>
+      <c r="AO76" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AP76" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AQ76" s="3" t="s">
+        <v>1655</v>
+      </c>
     </row>
-    <row r="77" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -11564,8 +12908,17 @@
       <c r="AM77" s="7" t="s">
         <v>1442</v>
       </c>
+      <c r="AO77" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AP77" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AQ77" s="2" t="s">
+        <v>1658</v>
+      </c>
     </row>
-    <row r="78" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -11653,8 +13006,17 @@
       <c r="AM78" s="8" t="s">
         <v>1444</v>
       </c>
+      <c r="AO78" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AP78" s="11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AQ78" s="3" t="s">
+        <v>1661</v>
+      </c>
     </row>
-    <row r="79" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -11742,8 +13104,17 @@
       <c r="AM79" s="7" t="s">
         <v>1446</v>
       </c>
+      <c r="AO79" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AP79" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AQ79" s="3" t="s">
+        <v>1664</v>
+      </c>
     </row>
-    <row r="80" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -11831,8 +13202,17 @@
       <c r="AM80" s="7" t="s">
         <v>1448</v>
       </c>
+      <c r="AO80" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AP80" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AQ80" s="2" t="s">
+        <v>1667</v>
+      </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -11911,8 +13291,17 @@
       <c r="AM81" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="AO81" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -11991,8 +13380,17 @@
       <c r="AM82" t="s">
         <v>1450</v>
       </c>
+      <c r="AO82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>1669</v>
+      </c>
     </row>
-    <row r="83" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>388</v>
       </c>
@@ -12080,8 +13478,17 @@
       <c r="AM83" s="3" t="s">
         <v>1454</v>
       </c>
+      <c r="AO83" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AP83" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AQ83" s="3" t="s">
+        <v>1672</v>
+      </c>
     </row>
-    <row r="84" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -12169,8 +13576,17 @@
       <c r="AM84" s="2" t="s">
         <v>1456</v>
       </c>
+      <c r="AO84" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AP84" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AQ84" s="3" t="s">
+        <v>1675</v>
+      </c>
     </row>
-    <row r="85" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -12258,8 +13674,17 @@
       <c r="AM85" s="3" t="s">
         <v>1458</v>
       </c>
+      <c r="AO85" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AP85" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AQ85" s="2" t="s">
+        <v>1678</v>
+      </c>
     </row>
-    <row r="86" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -12347,8 +13772,17 @@
       <c r="AM86" s="3" t="s">
         <v>1460</v>
       </c>
+      <c r="AO86" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AP86" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AQ86" s="2" t="s">
+        <v>1681</v>
+      </c>
     </row>
-    <row r="87" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -12436,8 +13870,17 @@
       <c r="AM87" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="AO87" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AP87" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AQ87" s="2" t="s">
+        <v>1684</v>
+      </c>
     </row>
-    <row r="88" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -12525,8 +13968,17 @@
       <c r="AM88" s="3" t="s">
         <v>1464</v>
       </c>
+      <c r="AO88" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AP88" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AQ88" s="3" t="s">
+        <v>1687</v>
+      </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -12605,8 +14057,17 @@
       <c r="AM89" t="s">
         <v>50</v>
       </c>
+      <c r="AO89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -12685,8 +14146,17 @@
       <c r="AM90" t="s">
         <v>1466</v>
       </c>
+      <c r="AO90" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>1689</v>
+      </c>
     </row>
-    <row r="91" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:43" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -12747,8 +14217,17 @@
       <c r="AM91" s="4">
         <v>1.9696969696969699</v>
       </c>
+      <c r="AO91" s="4">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="AP91" s="4">
+        <v>1.651515151515152</v>
+      </c>
+      <c r="AQ91" s="4">
+        <v>2.1818181818181821</v>
+      </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -12827,9 +14306,19 @@
       <c r="AM92" t="s">
         <v>1468</v>
       </c>
+      <c r="AO92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>1691</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:M1"/>
